--- a/JupyterNotebooks/AvgHW/Gamma1F-HW35.xlsx
+++ b/JupyterNotebooks/AvgHW/Gamma1F-HW35.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -73,25 +85,25 @@
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
     <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -677,25 +629,25 @@
         <v>1.001309482518511</v>
       </c>
       <c r="D3">
+        <v>0.9975200882603467</v>
+      </c>
+      <c r="E3">
+        <v>1.002795861220351</v>
+      </c>
+      <c r="F3">
+        <v>1.001136877048508</v>
+      </c>
+      <c r="G3">
+        <v>1.001065849812973</v>
+      </c>
+      <c r="H3">
         <v>0.9953885516243147</v>
       </c>
-      <c r="E3">
-        <v>1.001065849812973</v>
-      </c>
-      <c r="F3">
+      <c r="I3">
+        <v>0.9953885516243147</v>
+      </c>
+      <c r="J3">
         <v>1.001309482518511</v>
-      </c>
-      <c r="G3">
-        <v>1.002795861220351</v>
-      </c>
-      <c r="H3">
-        <v>0.9975200882603467</v>
-      </c>
-      <c r="I3">
-        <v>1.001136877048508</v>
-      </c>
-      <c r="J3">
-        <v>0.9953885516243147</v>
       </c>
       <c r="K3">
         <v>1.001309482518511</v>
@@ -728,7 +680,7 @@
         <v>0.999869451747501</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -739,25 +691,25 @@
         <v>1.002532795082038</v>
       </c>
       <c r="D4">
+        <v>0.99521239472805</v>
+      </c>
+      <c r="E4">
+        <v>1.005392063982304</v>
+      </c>
+      <c r="F4">
+        <v>1.002195057495993</v>
+      </c>
+      <c r="G4">
+        <v>1.002056075187685</v>
+      </c>
+      <c r="H4">
         <v>0.9910946667374783</v>
       </c>
-      <c r="E4">
-        <v>1.002056075187685</v>
-      </c>
-      <c r="F4">
+      <c r="I4">
+        <v>0.9910946667374783</v>
+      </c>
+      <c r="J4">
         <v>1.002532795082038</v>
-      </c>
-      <c r="G4">
-        <v>1.005392063982304</v>
-      </c>
-      <c r="H4">
-        <v>0.99521239472805</v>
-      </c>
-      <c r="I4">
-        <v>1.002195057495993</v>
-      </c>
-      <c r="J4">
-        <v>0.9910946667374783</v>
       </c>
       <c r="K4">
         <v>1.002532795082038</v>
@@ -790,7 +742,7 @@
         <v>0.9997471755355914</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -801,25 +753,25 @@
         <v>1.004809450947916</v>
       </c>
       <c r="D5">
-        <v>0.9829613139624872</v>
+        <v>0.9908266462336995</v>
       </c>
       <c r="E5">
+        <v>1.010381731655853</v>
+      </c>
+      <c r="F5">
+        <v>1.004203564215782</v>
+      </c>
+      <c r="G5">
         <v>1.0039542369145</v>
       </c>
-      <c r="F5">
+      <c r="H5">
+        <v>0.9829613139624871</v>
+      </c>
+      <c r="I5">
+        <v>0.9829613139624871</v>
+      </c>
+      <c r="J5">
         <v>1.004809450947916</v>
-      </c>
-      <c r="G5">
-        <v>1.010381731655853</v>
-      </c>
-      <c r="H5">
-        <v>0.9908266462336995</v>
-      </c>
-      <c r="I5">
-        <v>1.004203564215782</v>
-      </c>
-      <c r="J5">
-        <v>0.9829613139624872</v>
       </c>
       <c r="K5">
         <v>1.004809450947916</v>
@@ -852,7 +804,7 @@
         <v>0.999522823988373</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -863,25 +815,25 @@
         <v>1.007032665266514</v>
       </c>
       <c r="D6">
+        <v>0.9865463301562371</v>
+      </c>
+      <c r="E6">
+        <v>1.015249953071688</v>
+      </c>
+      <c r="F6">
+        <v>1.006163854034794</v>
+      </c>
+      <c r="G6">
+        <v>1.005806326690169</v>
+      </c>
+      <c r="H6">
         <v>0.9750227585371251</v>
       </c>
-      <c r="E6">
-        <v>1.005806326690169</v>
-      </c>
-      <c r="F6">
+      <c r="I6">
+        <v>0.9750227585371251</v>
+      </c>
+      <c r="J6">
         <v>1.007032665266514</v>
-      </c>
-      <c r="G6">
-        <v>1.015249953071688</v>
-      </c>
-      <c r="H6">
-        <v>0.9865463301562371</v>
-      </c>
-      <c r="I6">
-        <v>1.006163854034794</v>
-      </c>
-      <c r="J6">
-        <v>0.9750227585371251</v>
       </c>
       <c r="K6">
         <v>1.007032665266514</v>
@@ -914,7 +866,7 @@
         <v>0.9993036479594212</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -925,25 +877,25 @@
         <v>1.00006626645781</v>
       </c>
       <c r="D7">
-        <v>0.9996879067902126</v>
+        <v>0.9998241175320811</v>
       </c>
       <c r="E7">
+        <v>1.000228962400449</v>
+      </c>
+      <c r="F7">
+        <v>1.000079220222812</v>
+      </c>
+      <c r="G7">
         <v>1.000084554532461</v>
       </c>
-      <c r="F7">
+      <c r="H7">
+        <v>0.9996879067902127</v>
+      </c>
+      <c r="I7">
+        <v>0.9996879067902127</v>
+      </c>
+      <c r="J7">
         <v>1.00006626645781</v>
-      </c>
-      <c r="G7">
-        <v>1.000228962400449</v>
-      </c>
-      <c r="H7">
-        <v>0.9998241175320809</v>
-      </c>
-      <c r="I7">
-        <v>1.000079220222812</v>
-      </c>
-      <c r="J7">
-        <v>0.9996879067902126</v>
       </c>
       <c r="K7">
         <v>1.00006626645781</v>
@@ -952,16 +904,16 @@
         <v>1.000084554532461</v>
       </c>
       <c r="M7">
-        <v>0.999886230661337</v>
+        <v>0.9998862306613369</v>
       </c>
       <c r="N7">
-        <v>0.999886230661337</v>
+        <v>0.9998862306613369</v>
       </c>
       <c r="O7">
         <v>0.9998655262849182</v>
       </c>
       <c r="P7">
-        <v>0.9999462425934946</v>
+        <v>0.9999462425934945</v>
       </c>
       <c r="Q7">
         <v>0.9999462425934945</v>
@@ -976,7 +928,7 @@
         <v>0.9999951713226375</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -987,25 +939,25 @@
         <v>1.000174689498333</v>
       </c>
       <c r="D8">
+        <v>0.9995515087840995</v>
+      </c>
+      <c r="E8">
+        <v>1.000577253298253</v>
+      </c>
+      <c r="F8">
+        <v>1.00020231333131</v>
+      </c>
+      <c r="G8">
+        <v>1.000213684640225</v>
+      </c>
+      <c r="H8">
         <v>0.9992009674736235</v>
       </c>
-      <c r="E8">
-        <v>1.000213684640225</v>
-      </c>
-      <c r="F8">
+      <c r="I8">
+        <v>0.9992009674736235</v>
+      </c>
+      <c r="J8">
         <v>1.000174689498333</v>
-      </c>
-      <c r="G8">
-        <v>1.000577253298253</v>
-      </c>
-      <c r="H8">
-        <v>0.9995515087840995</v>
-      </c>
-      <c r="I8">
-        <v>1.00020231333131</v>
-      </c>
-      <c r="J8">
-        <v>0.9992009674736235</v>
       </c>
       <c r="K8">
         <v>1.000174689498333</v>
@@ -1038,7 +990,7 @@
         <v>0.9999867361709741</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1049,25 +1001,25 @@
         <v>1.000258078454604</v>
       </c>
       <c r="D9">
+        <v>0.9993715909366386</v>
+      </c>
+      <c r="E9">
+        <v>1.000793481459856</v>
+      </c>
+      <c r="F9">
+        <v>1.000284179355895</v>
+      </c>
+      <c r="G9">
+        <v>1.00029492368854</v>
+      </c>
+      <c r="H9">
         <v>0.9988729391563623</v>
       </c>
-      <c r="E9">
-        <v>1.00029492368854</v>
-      </c>
-      <c r="F9">
+      <c r="I9">
+        <v>0.9988729391563623</v>
+      </c>
+      <c r="J9">
         <v>1.000258078454604</v>
-      </c>
-      <c r="G9">
-        <v>1.000793481459856</v>
-      </c>
-      <c r="H9">
-        <v>0.9993715909366386</v>
-      </c>
-      <c r="I9">
-        <v>1.000284179355895</v>
-      </c>
-      <c r="J9">
-        <v>0.9988729391563623</v>
       </c>
       <c r="K9">
         <v>1.000258078454604</v>
@@ -1100,7 +1052,7 @@
         <v>0.9999791988419826</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1111,25 +1063,25 @@
         <v>1.000539067710982</v>
       </c>
       <c r="D10">
+        <v>0.9986455853848238</v>
+      </c>
+      <c r="E10">
+        <v>1.001729990745021</v>
+      </c>
+      <c r="F10">
+        <v>1.000611586428438</v>
+      </c>
+      <c r="G10">
+        <v>1.000641436222243</v>
+      </c>
+      <c r="H10">
         <v>0.9975804993958292</v>
       </c>
-      <c r="E10">
-        <v>1.000641436222243</v>
-      </c>
-      <c r="F10">
+      <c r="I10">
+        <v>0.9975804993958292</v>
+      </c>
+      <c r="J10">
         <v>1.000539067710982</v>
-      </c>
-      <c r="G10">
-        <v>1.001729990745021</v>
-      </c>
-      <c r="H10">
-        <v>0.9986455853848238</v>
-      </c>
-      <c r="I10">
-        <v>1.000611586428438</v>
-      </c>
-      <c r="J10">
-        <v>0.9975804993958292</v>
       </c>
       <c r="K10">
         <v>1.000539067710982</v>
@@ -1162,7 +1114,7 @@
         <v>0.9999580276478893</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1173,25 +1125,25 @@
         <v>1.000928125140496</v>
       </c>
       <c r="D11">
+        <v>0.9977521925456092</v>
+      </c>
+      <c r="E11">
+        <v>1.00283251893652</v>
+      </c>
+      <c r="F11">
+        <v>1.001016770225431</v>
+      </c>
+      <c r="G11">
+        <v>1.001053257428353</v>
+      </c>
+      <c r="H11">
         <v>0.995965729753739</v>
       </c>
-      <c r="E11">
-        <v>1.001053257428353</v>
-      </c>
-      <c r="F11">
+      <c r="I11">
+        <v>0.995965729753739</v>
+      </c>
+      <c r="J11">
         <v>1.000928125140496</v>
-      </c>
-      <c r="G11">
-        <v>1.00283251893652</v>
-      </c>
-      <c r="H11">
-        <v>0.9977521925456092</v>
-      </c>
-      <c r="I11">
-        <v>1.001016770225431</v>
-      </c>
-      <c r="J11">
-        <v>0.995965729753739</v>
       </c>
       <c r="K11">
         <v>1.000928125140496</v>
@@ -1224,7 +1176,7 @@
         <v>0.9999247656716914</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1235,25 +1187,25 @@
         <v>0.9943765283846456</v>
       </c>
       <c r="D12">
+        <v>1.019834248092231</v>
+      </c>
+      <c r="E12">
+        <v>0.9720481585830212</v>
+      </c>
+      <c r="F12">
+        <v>0.9911639890536953</v>
+      </c>
+      <c r="G12">
+        <v>0.9898419563533701</v>
+      </c>
+      <c r="H12">
         <v>1.034154224275527</v>
       </c>
-      <c r="E12">
-        <v>0.9898419563533701</v>
-      </c>
-      <c r="F12">
+      <c r="I12">
+        <v>1.034154224275527</v>
+      </c>
+      <c r="J12">
         <v>0.9943765283846456</v>
-      </c>
-      <c r="G12">
-        <v>0.9720481585830212</v>
-      </c>
-      <c r="H12">
-        <v>1.01983424809223</v>
-      </c>
-      <c r="I12">
-        <v>0.9911639890536954</v>
-      </c>
-      <c r="J12">
-        <v>1.034154224275527</v>
       </c>
       <c r="K12">
         <v>0.9943765283846456</v>
@@ -1286,7 +1238,7 @@
         <v>1.000236517457082</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1297,25 +1249,25 @@
         <v>0.9961875367233075</v>
       </c>
       <c r="D13">
+        <v>1.005200857483079</v>
+      </c>
+      <c r="E13">
+        <v>0.9953656638796829</v>
+      </c>
+      <c r="F13">
+        <v>0.9975593033009118</v>
+      </c>
+      <c r="G13">
+        <v>0.9981238196446287</v>
+      </c>
+      <c r="H13">
         <v>1.010270840016253</v>
       </c>
-      <c r="E13">
-        <v>0.9981238196446287</v>
-      </c>
-      <c r="F13">
+      <c r="I13">
+        <v>1.010270840016253</v>
+      </c>
+      <c r="J13">
         <v>0.9961875367233075</v>
-      </c>
-      <c r="G13">
-        <v>0.9953656638796829</v>
-      </c>
-      <c r="H13">
-        <v>1.005200857483079</v>
-      </c>
-      <c r="I13">
-        <v>0.9975593033009118</v>
-      </c>
-      <c r="J13">
-        <v>1.010270840016253</v>
       </c>
       <c r="K13">
         <v>0.9961875367233075</v>
@@ -1345,10 +1297,10 @@
         <v>1.000192433276874</v>
       </c>
       <c r="T13">
-        <v>1.00045133684131</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>1.000451336841311</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1359,25 +1311,25 @@
         <v>0.9941947451407518</v>
       </c>
       <c r="D14">
+        <v>1.019839009164142</v>
+      </c>
+      <c r="E14">
+        <v>0.9722494560419662</v>
+      </c>
+      <c r="F14">
+        <v>0.9911523237266607</v>
+      </c>
+      <c r="G14">
+        <v>0.9899002973575807</v>
+      </c>
+      <c r="H14">
         <v>1.034263898309756</v>
       </c>
-      <c r="E14">
-        <v>0.9899002973575807</v>
-      </c>
-      <c r="F14">
+      <c r="I14">
+        <v>1.034263898309756</v>
+      </c>
+      <c r="J14">
         <v>0.9941947451407518</v>
-      </c>
-      <c r="G14">
-        <v>0.9722494560419662</v>
-      </c>
-      <c r="H14">
-        <v>1.019839009164142</v>
-      </c>
-      <c r="I14">
-        <v>0.991152323726661</v>
-      </c>
-      <c r="J14">
-        <v>1.034263898309756</v>
       </c>
       <c r="K14">
         <v>0.9941947451407518</v>
@@ -1398,7 +1350,7 @@
         <v>1.006119646936029</v>
       </c>
       <c r="Q14">
-        <v>1.006119646936029</v>
+        <v>1.00611964693603</v>
       </c>
       <c r="R14">
         <v>1.00313842148721</v>
@@ -1410,7 +1362,7 @@
         <v>1.000266621623476</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,31 +1370,31 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9962635807468859</v>
+        <v>0.9962635807468857</v>
       </c>
       <c r="D15">
+        <v>1.005197898253381</v>
+      </c>
+      <c r="E15">
+        <v>0.995283119500201</v>
+      </c>
+      <c r="F15">
+        <v>0.9975645962154627</v>
+      </c>
+      <c r="G15">
+        <v>0.9980999993268769</v>
+      </c>
+      <c r="H15">
         <v>1.010223441416992</v>
       </c>
-      <c r="E15">
-        <v>0.9980999993268769</v>
-      </c>
-      <c r="F15">
-        <v>0.9962635807468859</v>
-      </c>
-      <c r="G15">
-        <v>0.995283119500201</v>
-      </c>
-      <c r="H15">
-        <v>1.005197898253381</v>
-      </c>
       <c r="I15">
-        <v>0.9975645962154627</v>
+        <v>1.010223441416992</v>
       </c>
       <c r="J15">
-        <v>1.010223441416992</v>
+        <v>0.9962635807468857</v>
       </c>
       <c r="K15">
-        <v>0.9962635807468859</v>
+        <v>0.9962635807468857</v>
       </c>
       <c r="L15">
         <v>0.9980999993268769</v>
@@ -1472,7 +1424,7 @@
         <v>1.000438772576633</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9999531306024411</v>
+        <v>1.025070720901976</v>
       </c>
       <c r="D16">
-        <v>1.000013127626755</v>
+        <v>0.9516452186922202</v>
       </c>
       <c r="E16">
-        <v>1.00002093298893</v>
+        <v>1.055048302884152</v>
       </c>
       <c r="F16">
-        <v>0.9999531306024411</v>
+        <v>1.022143065184829</v>
       </c>
       <c r="G16">
-        <v>1.000068736214387</v>
+        <v>1.020938279619081</v>
       </c>
       <c r="H16">
-        <v>0.9999915300693015</v>
+        <v>0.9103433706832383</v>
       </c>
       <c r="I16">
-        <v>1.00000116320404</v>
+        <v>0.9103433706832383</v>
       </c>
       <c r="J16">
-        <v>1.000013127626755</v>
+        <v>1.025070720901976</v>
       </c>
       <c r="K16">
-        <v>0.9999531306024411</v>
+        <v>1.025070720901976</v>
       </c>
       <c r="L16">
-        <v>1.00002093298893</v>
+        <v>1.020938279619081</v>
       </c>
       <c r="M16">
-        <v>1.000017030307843</v>
+        <v>0.9656408251511597</v>
       </c>
       <c r="N16">
-        <v>1.000017030307843</v>
+        <v>0.9656408251511597</v>
       </c>
       <c r="O16">
-        <v>1.000008530228329</v>
+        <v>0.96097562299818</v>
       </c>
       <c r="P16">
-        <v>0.9999957304060421</v>
+        <v>0.9854507904014317</v>
       </c>
       <c r="Q16">
-        <v>0.9999957304060422</v>
+        <v>0.9854507904014317</v>
       </c>
       <c r="R16">
-        <v>0.9999850804551419</v>
+        <v>0.9953557730265677</v>
       </c>
       <c r="S16">
-        <v>0.9999850804551419</v>
+        <v>0.9953557730265677</v>
       </c>
       <c r="T16">
-        <v>1.000008103450976</v>
+        <v>0.9975314929942495</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000147603662803</v>
+        <v>1.019552101113845</v>
       </c>
       <c r="D17">
-        <v>0.9995763587594434</v>
+        <v>0.9604641003706712</v>
       </c>
       <c r="E17">
-        <v>1.00008274730493</v>
+        <v>1.04609948678147</v>
       </c>
       <c r="F17">
-        <v>1.000147603662803</v>
+        <v>1.018054554373768</v>
       </c>
       <c r="G17">
-        <v>1.000208304985065</v>
+        <v>1.017438288771451</v>
       </c>
       <c r="H17">
-        <v>0.9997820084782264</v>
+        <v>0.927227097401257</v>
       </c>
       <c r="I17">
-        <v>1.000101653084056</v>
+        <v>0.927227097401257</v>
       </c>
       <c r="J17">
-        <v>0.9995763587594434</v>
+        <v>1.019552101113845</v>
       </c>
       <c r="K17">
-        <v>1.000147603662803</v>
+        <v>1.019552101113845</v>
       </c>
       <c r="L17">
-        <v>1.00008274730493</v>
+        <v>1.017438288771451</v>
       </c>
       <c r="M17">
-        <v>0.9998295530321868</v>
+        <v>0.9723326930863538</v>
       </c>
       <c r="N17">
-        <v>0.9998295530321868</v>
+        <v>0.9723326930863538</v>
       </c>
       <c r="O17">
-        <v>0.9998137048475333</v>
+        <v>0.9683764955144597</v>
       </c>
       <c r="P17">
-        <v>0.9999355699090589</v>
+        <v>0.9880724957621844</v>
       </c>
       <c r="Q17">
-        <v>0.9999355699090589</v>
+        <v>0.9880724957621844</v>
       </c>
       <c r="R17">
-        <v>0.9999885783474949</v>
+        <v>0.9959423971000996</v>
       </c>
       <c r="S17">
-        <v>0.9999885783474949</v>
+        <v>0.9959423971000996</v>
       </c>
       <c r="T17">
-        <v>0.9999831127124206</v>
+        <v>0.9981392714687437</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000279512597129</v>
+        <v>1.008509226567725</v>
       </c>
       <c r="D18">
-        <v>0.9986562749219536</v>
+        <v>0.9781952143202861</v>
       </c>
       <c r="E18">
-        <v>1.000367271803629</v>
+        <v>1.02804628353551</v>
       </c>
       <c r="F18">
-        <v>1.000279512597129</v>
+        <v>1.009837048578974</v>
       </c>
       <c r="G18">
-        <v>1.000996110040136</v>
+        <v>1.010383483097637</v>
       </c>
       <c r="H18">
-        <v>0.9992406419932862</v>
+        <v>0.9611435809994016</v>
       </c>
       <c r="I18">
-        <v>1.000341683059259</v>
+        <v>0.9611435809994016</v>
       </c>
       <c r="J18">
-        <v>0.9986562749219536</v>
+        <v>1.008509226567725</v>
       </c>
       <c r="K18">
-        <v>1.000279512597129</v>
+        <v>1.008509226567725</v>
       </c>
       <c r="L18">
-        <v>1.000367271803629</v>
+        <v>1.010383483097637</v>
       </c>
       <c r="M18">
-        <v>0.9995117733627913</v>
+        <v>0.9857635320485194</v>
       </c>
       <c r="N18">
-        <v>0.9995117733627913</v>
+        <v>0.9857635320485194</v>
       </c>
       <c r="O18">
-        <v>0.9994213962396229</v>
+        <v>0.9832407594724417</v>
       </c>
       <c r="P18">
-        <v>0.9997676864409039</v>
+        <v>0.9933454302215879</v>
       </c>
       <c r="Q18">
-        <v>0.9997676864409039</v>
+        <v>0.9933454302215879</v>
       </c>
       <c r="R18">
-        <v>0.99989564297996</v>
+        <v>0.9971363793081223</v>
       </c>
       <c r="S18">
-        <v>0.99989564297996</v>
+        <v>0.9971363793081223</v>
       </c>
       <c r="T18">
-        <v>0.9999802490692321</v>
+        <v>0.9993524728499225</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>1.008817380945834</v>
+      </c>
+      <c r="D19">
+        <v>0.976213523314081</v>
+      </c>
+      <c r="E19">
+        <v>1.03113148548931</v>
+      </c>
+      <c r="F19">
+        <v>1.010706449526918</v>
+      </c>
+      <c r="G19">
+        <v>1.011483847699509</v>
+      </c>
+      <c r="H19">
+        <v>0.9578738492882941</v>
+      </c>
+      <c r="I19">
+        <v>0.9578738492882941</v>
+      </c>
+      <c r="J19">
+        <v>1.008817380945834</v>
+      </c>
+      <c r="K19">
+        <v>1.008817380945834</v>
+      </c>
+      <c r="L19">
+        <v>1.011483847699509</v>
+      </c>
+      <c r="M19">
+        <v>0.9846788484939014</v>
+      </c>
+      <c r="N19">
+        <v>0.9846788484939014</v>
+      </c>
+      <c r="O19">
+        <v>0.9818570734339612</v>
+      </c>
+      <c r="P19">
+        <v>0.9927250259778789</v>
+      </c>
+      <c r="Q19">
+        <v>0.9927250259778789</v>
+      </c>
+      <c r="R19">
+        <v>0.9967481147198676</v>
+      </c>
+      <c r="S19">
+        <v>0.9967481147198676</v>
+      </c>
+      <c r="T19">
+        <v>0.9993710893773242</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9999531306024411</v>
+      </c>
+      <c r="D20">
+        <v>0.9999915300693015</v>
+      </c>
+      <c r="E20">
+        <v>1.000068736214387</v>
+      </c>
+      <c r="F20">
+        <v>1.00000116320404</v>
+      </c>
+      <c r="G20">
+        <v>1.00002093298893</v>
+      </c>
+      <c r="H20">
+        <v>1.000013127626755</v>
+      </c>
+      <c r="I20">
+        <v>1.000013127626755</v>
+      </c>
+      <c r="J20">
+        <v>0.9999531306024411</v>
+      </c>
+      <c r="K20">
+        <v>0.9999531306024411</v>
+      </c>
+      <c r="L20">
+        <v>1.00002093298893</v>
+      </c>
+      <c r="M20">
+        <v>1.000017030307843</v>
+      </c>
+      <c r="N20">
+        <v>1.000017030307843</v>
+      </c>
+      <c r="O20">
+        <v>1.000008530228329</v>
+      </c>
+      <c r="P20">
+        <v>0.9999957304060421</v>
+      </c>
+      <c r="Q20">
+        <v>0.9999957304060422</v>
+      </c>
+      <c r="R20">
+        <v>0.9999850804551419</v>
+      </c>
+      <c r="S20">
+        <v>0.9999850804551419</v>
+      </c>
+      <c r="T20">
+        <v>1.000008103450976</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.000147603662803</v>
+      </c>
+      <c r="D21">
+        <v>0.9997820084782264</v>
+      </c>
+      <c r="E21">
+        <v>1.000208304985065</v>
+      </c>
+      <c r="F21">
+        <v>1.000101653084056</v>
+      </c>
+      <c r="G21">
+        <v>1.000082747304931</v>
+      </c>
+      <c r="H21">
+        <v>0.9995763587594434</v>
+      </c>
+      <c r="I21">
+        <v>0.9995763587594434</v>
+      </c>
+      <c r="J21">
+        <v>1.000147603662803</v>
+      </c>
+      <c r="K21">
+        <v>1.000147603662803</v>
+      </c>
+      <c r="L21">
+        <v>1.000082747304931</v>
+      </c>
+      <c r="M21">
+        <v>0.999829553032187</v>
+      </c>
+      <c r="N21">
+        <v>0.999829553032187</v>
+      </c>
+      <c r="O21">
+        <v>0.9998137048475334</v>
+      </c>
+      <c r="P21">
+        <v>0.999935569909059</v>
+      </c>
+      <c r="Q21">
+        <v>0.999935569909059</v>
+      </c>
+      <c r="R21">
+        <v>0.999988578347495</v>
+      </c>
+      <c r="S21">
+        <v>0.999988578347495</v>
+      </c>
+      <c r="T21">
+        <v>0.9999831127124206</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.000279512597129</v>
+      </c>
+      <c r="D22">
+        <v>0.9992406419932862</v>
+      </c>
+      <c r="E22">
+        <v>1.000996110040136</v>
+      </c>
+      <c r="F22">
+        <v>1.000341683059259</v>
+      </c>
+      <c r="G22">
+        <v>1.000367271803629</v>
+      </c>
+      <c r="H22">
+        <v>0.9986562749219536</v>
+      </c>
+      <c r="I22">
+        <v>0.9986562749219536</v>
+      </c>
+      <c r="J22">
+        <v>1.000279512597129</v>
+      </c>
+      <c r="K22">
+        <v>1.000279512597129</v>
+      </c>
+      <c r="L22">
+        <v>1.000367271803629</v>
+      </c>
+      <c r="M22">
+        <v>0.9995117733627913</v>
+      </c>
+      <c r="N22">
+        <v>0.9995117733627913</v>
+      </c>
+      <c r="O22">
+        <v>0.9994213962396229</v>
+      </c>
+      <c r="P22">
+        <v>0.9997676864409039</v>
+      </c>
+      <c r="Q22">
+        <v>0.9997676864409039</v>
+      </c>
+      <c r="R22">
+        <v>0.9998956429799601</v>
+      </c>
+      <c r="S22">
+        <v>0.9998956429799601</v>
+      </c>
+      <c r="T22">
+        <v>0.9999802490692321</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
         <v>1.00053430293941</v>
       </c>
-      <c r="D19">
+      <c r="D23">
+        <v>0.9982251317785074</v>
+      </c>
+      <c r="E23">
+        <v>1.002465442431171</v>
+      </c>
+      <c r="F23">
+        <v>1.000792336916367</v>
+      </c>
+      <c r="G23">
+        <v>1.000898530807781</v>
+      </c>
+      <c r="H23">
         <v>0.9969262242892121</v>
       </c>
-      <c r="E19">
-        <v>1.00089853080778</v>
-      </c>
-      <c r="F19">
+      <c r="I23">
+        <v>0.9969262242892121</v>
+      </c>
+      <c r="J23">
         <v>1.00053430293941</v>
       </c>
-      <c r="G19">
-        <v>1.002465442431171</v>
-      </c>
-      <c r="H19">
-        <v>0.9982251317785074</v>
-      </c>
-      <c r="I19">
-        <v>1.000792336916367</v>
-      </c>
-      <c r="J19">
-        <v>0.9969262242892121</v>
-      </c>
-      <c r="K19">
+      <c r="K23">
         <v>1.00053430293941</v>
       </c>
-      <c r="L19">
-        <v>1.00089853080778</v>
-      </c>
-      <c r="M19">
-        <v>0.9989123775484962</v>
-      </c>
-      <c r="N19">
-        <v>0.9989123775484962</v>
-      </c>
-      <c r="O19">
-        <v>0.9986832956251664</v>
-      </c>
-      <c r="P19">
+      <c r="L23">
+        <v>1.000898530807781</v>
+      </c>
+      <c r="M23">
+        <v>0.9989123775484964</v>
+      </c>
+      <c r="N23">
+        <v>0.9989123775484964</v>
+      </c>
+      <c r="O23">
+        <v>0.9986832956251668</v>
+      </c>
+      <c r="P23">
         <v>0.9994530193454674</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>0.9994530193454674</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.9997233402439529</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9997233402439529</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>0.9999736615270747</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/Gamma1F-HW35.xlsx
+++ b/JupyterNotebooks/AvgHW/Gamma1F-HW35.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.001309482518511</v>
+        <v>1.010142765317004</v>
       </c>
       <c r="D3">
-        <v>0.9975200882603467</v>
+        <v>0.9741727367507198</v>
       </c>
       <c r="E3">
-        <v>1.002795861220351</v>
+        <v>1.033146643191643</v>
       </c>
       <c r="F3">
-        <v>1.001136877048508</v>
+        <v>1.011655131361672</v>
       </c>
       <c r="G3">
-        <v>1.001065849812973</v>
+        <v>1.012277509726226</v>
       </c>
       <c r="H3">
-        <v>0.9953885516243147</v>
+        <v>0.9539395934510102</v>
       </c>
       <c r="I3">
-        <v>0.9953885516243147</v>
+        <v>0.9539395934510102</v>
       </c>
       <c r="J3">
-        <v>1.001309482518511</v>
+        <v>1.010142765317004</v>
       </c>
       <c r="K3">
-        <v>1.001309482518511</v>
+        <v>1.010142765317004</v>
       </c>
       <c r="L3">
-        <v>1.001065849812973</v>
+        <v>1.012277509726226</v>
       </c>
       <c r="M3">
-        <v>0.9982272007186439</v>
+        <v>0.9831085515886183</v>
       </c>
       <c r="N3">
-        <v>0.9982272007186439</v>
+        <v>0.9831085515886183</v>
       </c>
       <c r="O3">
-        <v>0.9979914965658782</v>
+        <v>0.9801299466426521</v>
       </c>
       <c r="P3">
-        <v>0.9992546279852664</v>
+        <v>0.992119956164747</v>
       </c>
       <c r="Q3">
-        <v>0.9992546279852664</v>
+        <v>0.992119956164747</v>
       </c>
       <c r="R3">
-        <v>0.9997683416185776</v>
+        <v>0.9966256584528113</v>
       </c>
       <c r="S3">
-        <v>0.9997683416185776</v>
+        <v>0.9966256584528113</v>
       </c>
       <c r="T3">
-        <v>0.999869451747501</v>
+        <v>0.9992223966330459</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.002532795082038</v>
+        <v>1.00922447428997</v>
       </c>
       <c r="D4">
-        <v>0.99521239472805</v>
+        <v>0.9763688934103595</v>
       </c>
       <c r="E4">
-        <v>1.005392063982304</v>
+        <v>1.030392457348118</v>
       </c>
       <c r="F4">
-        <v>1.002195057495993</v>
+        <v>1.010661111785316</v>
       </c>
       <c r="G4">
-        <v>1.002056075187685</v>
+        <v>1.011252325434215</v>
       </c>
       <c r="H4">
-        <v>0.9910946667374783</v>
+        <v>0.9578876272586626</v>
       </c>
       <c r="I4">
-        <v>0.9910946667374783</v>
+        <v>0.9578876272586626</v>
       </c>
       <c r="J4">
-        <v>1.002532795082038</v>
+        <v>1.00922447428997</v>
       </c>
       <c r="K4">
-        <v>1.002532795082038</v>
+        <v>1.00922447428997</v>
       </c>
       <c r="L4">
-        <v>1.002056075187685</v>
+        <v>1.011252325434215</v>
       </c>
       <c r="M4">
-        <v>0.9965753709625818</v>
+        <v>0.9845699763464388</v>
       </c>
       <c r="N4">
-        <v>0.9965753709625818</v>
+        <v>0.9845699763464388</v>
       </c>
       <c r="O4">
-        <v>0.9961210455510713</v>
+        <v>0.9818362820344123</v>
       </c>
       <c r="P4">
-        <v>0.9985611790024004</v>
+        <v>0.9927881423276158</v>
       </c>
       <c r="Q4">
-        <v>0.9985611790024004</v>
+        <v>0.9927881423276158</v>
       </c>
       <c r="R4">
-        <v>0.9995540830223097</v>
+        <v>0.9968972253182042</v>
       </c>
       <c r="S4">
-        <v>0.9995540830223097</v>
+        <v>0.9968972253182042</v>
       </c>
       <c r="T4">
-        <v>0.9997471755355914</v>
+        <v>0.9992978149211069</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.004809450947916</v>
+        <v>1.011884774636118</v>
       </c>
       <c r="D5">
-        <v>0.9908266462336995</v>
+        <v>0.9699952579784376</v>
       </c>
       <c r="E5">
-        <v>1.010381731655853</v>
+        <v>1.038391054716982</v>
       </c>
       <c r="F5">
-        <v>1.004203564215782</v>
+        <v>1.013545676576819</v>
       </c>
       <c r="G5">
-        <v>1.0039542369145</v>
+        <v>1.014229189919138</v>
       </c>
       <c r="H5">
-        <v>0.9829613139624871</v>
+        <v>0.9464323988679232</v>
       </c>
       <c r="I5">
-        <v>0.9829613139624871</v>
+        <v>0.9464323988679232</v>
       </c>
       <c r="J5">
-        <v>1.004809450947916</v>
+        <v>1.011884774636118</v>
       </c>
       <c r="K5">
-        <v>1.004809450947916</v>
+        <v>1.011884774636118</v>
       </c>
       <c r="L5">
-        <v>1.0039542369145</v>
+        <v>1.014229189919138</v>
       </c>
       <c r="M5">
-        <v>0.9934577754384935</v>
+        <v>0.9803307943935307</v>
       </c>
       <c r="N5">
-        <v>0.9934577754384935</v>
+        <v>0.9803307943935307</v>
       </c>
       <c r="O5">
-        <v>0.9925807323702288</v>
+        <v>0.9768856155884996</v>
       </c>
       <c r="P5">
-        <v>0.9972416672749679</v>
+        <v>0.9908487878077267</v>
       </c>
       <c r="Q5">
-        <v>0.9972416672749679</v>
+        <v>0.9908487878077264</v>
       </c>
       <c r="R5">
-        <v>0.9991336131932049</v>
+        <v>0.9961077845148245</v>
       </c>
       <c r="S5">
-        <v>0.9991336131932049</v>
+        <v>0.9961077845148245</v>
       </c>
       <c r="T5">
-        <v>0.999522823988373</v>
+        <v>0.9990797254492363</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.007032665266514</v>
+        <v>1.013508999772727</v>
       </c>
       <c r="D6">
-        <v>0.9865463301562371</v>
+        <v>0.9660867455113648</v>
       </c>
       <c r="E6">
-        <v>1.015249953071688</v>
+        <v>1.0433042975</v>
       </c>
       <c r="F6">
-        <v>1.006163854034794</v>
+        <v>1.015314210681818</v>
       </c>
       <c r="G6">
-        <v>1.005806326690169</v>
+        <v>1.016057100795454</v>
       </c>
       <c r="H6">
-        <v>0.9750227585371251</v>
+        <v>0.9394117156249995</v>
       </c>
       <c r="I6">
-        <v>0.9750227585371251</v>
+        <v>0.9394117156249995</v>
       </c>
       <c r="J6">
-        <v>1.007032665266514</v>
+        <v>1.013508999772727</v>
       </c>
       <c r="K6">
-        <v>1.007032665266514</v>
+        <v>1.013508999772727</v>
       </c>
       <c r="L6">
-        <v>1.005806326690169</v>
+        <v>1.016057100795454</v>
       </c>
       <c r="M6">
-        <v>0.990414542613647</v>
+        <v>0.9777344082102269</v>
       </c>
       <c r="N6">
-        <v>0.990414542613647</v>
+        <v>0.9777344082102269</v>
       </c>
       <c r="O6">
-        <v>0.9891251384611771</v>
+        <v>0.9738518539772728</v>
       </c>
       <c r="P6">
-        <v>0.9959539168312693</v>
+        <v>0.9896592720643937</v>
       </c>
       <c r="Q6">
-        <v>0.9959539168312693</v>
+        <v>0.9896592720643937</v>
       </c>
       <c r="R6">
-        <v>0.9987236039400805</v>
+        <v>0.9956217039914771</v>
       </c>
       <c r="S6">
-        <v>0.9987236039400805</v>
+        <v>0.9956217039914771</v>
       </c>
       <c r="T6">
-        <v>0.9993036479594212</v>
+        <v>0.9989471783143941</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.00006626645781</v>
+        <v>1.008791688965795</v>
       </c>
       <c r="D7">
-        <v>0.9998241175320811</v>
+        <v>0.9855312466938405</v>
       </c>
       <c r="E7">
-        <v>1.000228962400449</v>
+        <v>1.014984514413744</v>
       </c>
       <c r="F7">
-        <v>1.000079220222812</v>
+        <v>1.006693957803947</v>
       </c>
       <c r="G7">
-        <v>1.000084554532461</v>
+        <v>1.005830696731588</v>
       </c>
       <c r="H7">
-        <v>0.9996879067902127</v>
+        <v>0.9724472212449383</v>
       </c>
       <c r="I7">
-        <v>0.9996879067902127</v>
+        <v>0.9724472212449383</v>
       </c>
       <c r="J7">
-        <v>1.00006626645781</v>
+        <v>1.008791688965795</v>
       </c>
       <c r="K7">
-        <v>1.00006626645781</v>
+        <v>1.008791688965795</v>
       </c>
       <c r="L7">
-        <v>1.000084554532461</v>
+        <v>1.005830696731588</v>
       </c>
       <c r="M7">
-        <v>0.9998862306613369</v>
+        <v>0.9891389589882629</v>
       </c>
       <c r="N7">
-        <v>0.9998862306613369</v>
+        <v>0.9891389589882629</v>
       </c>
       <c r="O7">
-        <v>0.9998655262849182</v>
+        <v>0.9879363882234554</v>
       </c>
       <c r="P7">
-        <v>0.9999462425934945</v>
+        <v>0.9956898689807737</v>
       </c>
       <c r="Q7">
-        <v>0.9999462425934945</v>
+        <v>0.9956898689807737</v>
       </c>
       <c r="R7">
-        <v>0.9999762485595733</v>
+        <v>0.9989653239770291</v>
       </c>
       <c r="S7">
-        <v>0.9999762485595733</v>
+        <v>0.9989653239770291</v>
       </c>
       <c r="T7">
-        <v>0.9999951713226375</v>
+        <v>0.9990465543089755</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000174689498333</v>
+        <v>1.009010456700387</v>
       </c>
       <c r="D8">
-        <v>0.9995515087840995</v>
+        <v>0.9849619233010385</v>
       </c>
       <c r="E8">
-        <v>1.000577253298253</v>
+        <v>1.015720732324297</v>
       </c>
       <c r="F8">
-        <v>1.00020231333131</v>
+        <v>1.006950622759913</v>
       </c>
       <c r="G8">
-        <v>1.000213684640225</v>
+        <v>1.006102957354124</v>
       </c>
       <c r="H8">
-        <v>0.9992009674736235</v>
+        <v>0.9714345966805769</v>
       </c>
       <c r="I8">
-        <v>0.9992009674736235</v>
+        <v>0.9714345966805769</v>
       </c>
       <c r="J8">
-        <v>1.000174689498333</v>
+        <v>1.009010456700387</v>
       </c>
       <c r="K8">
-        <v>1.000174689498333</v>
+        <v>1.009010456700387</v>
       </c>
       <c r="L8">
-        <v>1.000213684640225</v>
+        <v>1.006102957354124</v>
       </c>
       <c r="M8">
-        <v>0.9997073260569244</v>
+        <v>0.9887687770173504</v>
       </c>
       <c r="N8">
-        <v>0.9997073260569244</v>
+        <v>0.9887687770173504</v>
       </c>
       <c r="O8">
-        <v>0.9996553869659827</v>
+        <v>0.9874998257785798</v>
       </c>
       <c r="P8">
-        <v>0.9998631138707273</v>
+        <v>0.9955160035783627</v>
       </c>
       <c r="Q8">
-        <v>0.9998631138707273</v>
+        <v>0.9955160035783627</v>
       </c>
       <c r="R8">
-        <v>0.9999410077776287</v>
+        <v>0.9988896168588688</v>
       </c>
       <c r="S8">
-        <v>0.9999410077776287</v>
+        <v>0.9988896168588688</v>
       </c>
       <c r="T8">
-        <v>0.9999867361709741</v>
+        <v>0.9990302148533895</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000258078454604</v>
+        <v>1.009172667261489</v>
       </c>
       <c r="D9">
-        <v>0.9993715909366386</v>
+        <v>0.984476842875508</v>
       </c>
       <c r="E9">
-        <v>1.000793481459856</v>
+        <v>1.016375892902159</v>
       </c>
       <c r="F9">
-        <v>1.000284179355895</v>
+        <v>1.007168028638394</v>
       </c>
       <c r="G9">
-        <v>1.00029492368854</v>
+        <v>1.006343077485019</v>
       </c>
       <c r="H9">
-        <v>0.9988729391563623</v>
+        <v>0.9705854151137158</v>
       </c>
       <c r="I9">
-        <v>0.9988729391563623</v>
+        <v>0.9705854151137158</v>
       </c>
       <c r="J9">
-        <v>1.000258078454604</v>
+        <v>1.009172667261489</v>
       </c>
       <c r="K9">
-        <v>1.000258078454604</v>
+        <v>1.009172667261489</v>
       </c>
       <c r="L9">
-        <v>1.00029492368854</v>
+        <v>1.006343077485019</v>
       </c>
       <c r="M9">
-        <v>0.9995839314224513</v>
+        <v>0.9884642462993674</v>
       </c>
       <c r="N9">
-        <v>0.9995839314224513</v>
+        <v>0.9884642462993674</v>
       </c>
       <c r="O9">
-        <v>0.9995131512605138</v>
+        <v>0.9871351118247476</v>
       </c>
       <c r="P9">
-        <v>0.9998086470998354</v>
+        <v>0.9953670532867415</v>
       </c>
       <c r="Q9">
-        <v>0.9998086470998354</v>
+        <v>0.9953670532867415</v>
       </c>
       <c r="R9">
-        <v>0.9999210049385276</v>
+        <v>0.9988184567804284</v>
       </c>
       <c r="S9">
-        <v>0.9999210049385276</v>
+        <v>0.9988184567804284</v>
       </c>
       <c r="T9">
-        <v>0.9999791988419826</v>
+        <v>0.9990203207127143</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000539067710982</v>
+        <v>1.009696761905917</v>
       </c>
       <c r="D10">
-        <v>0.9986455853848238</v>
+        <v>0.9833255614963865</v>
       </c>
       <c r="E10">
-        <v>1.001729990745021</v>
+        <v>1.01777047959136</v>
       </c>
       <c r="F10">
-        <v>1.000611586428438</v>
+        <v>1.007691379120969</v>
       </c>
       <c r="G10">
-        <v>1.000641436222243</v>
+        <v>1.006866122298648</v>
       </c>
       <c r="H10">
-        <v>0.9975804993958292</v>
+        <v>0.9684917348394866</v>
       </c>
       <c r="I10">
-        <v>0.9975804993958292</v>
+        <v>0.9684917348394866</v>
       </c>
       <c r="J10">
-        <v>1.000539067710982</v>
+        <v>1.009696761905917</v>
       </c>
       <c r="K10">
-        <v>1.000539067710982</v>
+        <v>1.009696761905917</v>
       </c>
       <c r="L10">
-        <v>1.000641436222243</v>
+        <v>1.006866122298648</v>
       </c>
       <c r="M10">
-        <v>0.9991109678090362</v>
+        <v>0.9876789285690672</v>
       </c>
       <c r="N10">
-        <v>0.9991109678090362</v>
+        <v>0.9876789285690672</v>
       </c>
       <c r="O10">
-        <v>0.9989558403342987</v>
+        <v>0.986227806211507</v>
       </c>
       <c r="P10">
-        <v>0.9995870011096848</v>
+        <v>0.9950182063480172</v>
       </c>
       <c r="Q10">
-        <v>0.9995870011096848</v>
+        <v>0.9950182063480172</v>
       </c>
       <c r="R10">
-        <v>0.999825017760009</v>
+        <v>0.9986878452374921</v>
       </c>
       <c r="S10">
-        <v>0.999825017760009</v>
+        <v>0.9986878452374921</v>
       </c>
       <c r="T10">
-        <v>0.9999580276478893</v>
+        <v>0.9989736732087945</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000928125140496</v>
+        <v>1.001431506435121</v>
       </c>
       <c r="D11">
-        <v>0.9977521925456092</v>
+        <v>0.9972922927093133</v>
       </c>
       <c r="E11">
-        <v>1.00283251893652</v>
+        <v>1.003050672711221</v>
       </c>
       <c r="F11">
-        <v>1.001016770225431</v>
+        <v>1.001241398102579</v>
       </c>
       <c r="G11">
-        <v>1.001053257428353</v>
+        <v>1.001163168607361</v>
       </c>
       <c r="H11">
-        <v>0.995965729753739</v>
+        <v>0.9949639828065094</v>
       </c>
       <c r="I11">
-        <v>0.995965729753739</v>
+        <v>0.9949639828065094</v>
       </c>
       <c r="J11">
-        <v>1.000928125140496</v>
+        <v>1.001431506435121</v>
       </c>
       <c r="K11">
-        <v>1.000928125140496</v>
+        <v>1.001431506435121</v>
       </c>
       <c r="L11">
-        <v>1.001053257428353</v>
+        <v>1.001163168607361</v>
       </c>
       <c r="M11">
-        <v>0.998509493591046</v>
+        <v>0.9980635757069352</v>
       </c>
       <c r="N11">
-        <v>0.998509493591046</v>
+        <v>0.9980635757069352</v>
       </c>
       <c r="O11">
-        <v>0.9982570599092337</v>
+        <v>0.9978064813743946</v>
       </c>
       <c r="P11">
-        <v>0.9993157041075292</v>
+        <v>0.999186219282997</v>
       </c>
       <c r="Q11">
-        <v>0.9993157041075292</v>
+        <v>0.999186219282997</v>
       </c>
       <c r="R11">
-        <v>0.9997188093657708</v>
+        <v>0.9997475410710279</v>
       </c>
       <c r="S11">
-        <v>0.9997188093657708</v>
+        <v>0.9997475410710279</v>
       </c>
       <c r="T11">
-        <v>0.9999247656716914</v>
+        <v>0.999857170228684</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9943765283846456</v>
+        <v>1.000692685673074</v>
       </c>
       <c r="D12">
-        <v>1.019834248092231</v>
+        <v>0.9987057041790363</v>
       </c>
       <c r="E12">
-        <v>0.9720481585830212</v>
+        <v>1.001448530100488</v>
       </c>
       <c r="F12">
-        <v>0.9911639890536953</v>
+        <v>1.000593838490023</v>
       </c>
       <c r="G12">
-        <v>0.9898419563533701</v>
+        <v>1.000553164356496</v>
       </c>
       <c r="H12">
-        <v>1.034154224275527</v>
+        <v>0.9975880248170982</v>
       </c>
       <c r="I12">
-        <v>1.034154224275527</v>
+        <v>0.9975880248170982</v>
       </c>
       <c r="J12">
-        <v>0.9943765283846456</v>
+        <v>1.000692685673074</v>
       </c>
       <c r="K12">
-        <v>0.9943765283846456</v>
+        <v>1.000692685673074</v>
       </c>
       <c r="L12">
-        <v>0.9898419563533701</v>
+        <v>1.000553164356496</v>
       </c>
       <c r="M12">
-        <v>1.011998090314449</v>
+        <v>0.9990705945867968</v>
       </c>
       <c r="N12">
-        <v>1.011998090314449</v>
+        <v>0.9990705945867968</v>
       </c>
       <c r="O12">
-        <v>1.014610142907043</v>
+        <v>0.9989489644508766</v>
       </c>
       <c r="P12">
-        <v>1.006124236337848</v>
+        <v>0.9996112916155558</v>
       </c>
       <c r="Q12">
-        <v>1.006124236337848</v>
+        <v>0.9996112916155558</v>
       </c>
       <c r="R12">
-        <v>1.003187309349547</v>
+        <v>0.9998816401299353</v>
       </c>
       <c r="S12">
-        <v>1.003187309349547</v>
+        <v>0.9998816401299353</v>
       </c>
       <c r="T12">
-        <v>1.000236517457082</v>
+        <v>0.9999303246027025</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9961875367233075</v>
+        <v>1.002386546189921</v>
       </c>
       <c r="D13">
-        <v>1.005200857483079</v>
+        <v>0.9956376536453905</v>
       </c>
       <c r="E13">
-        <v>0.9953656638796829</v>
+        <v>1.004822356023815</v>
       </c>
       <c r="F13">
-        <v>0.9975593033009118</v>
+        <v>1.002004242169196</v>
       </c>
       <c r="G13">
-        <v>0.9981238196446287</v>
+        <v>1.001846928717757</v>
       </c>
       <c r="H13">
-        <v>1.010270840016253</v>
+        <v>0.9918413977568938</v>
       </c>
       <c r="I13">
-        <v>1.010270840016253</v>
+        <v>0.9918413977568938</v>
       </c>
       <c r="J13">
-        <v>0.9961875367233075</v>
+        <v>1.002386546189921</v>
       </c>
       <c r="K13">
-        <v>0.9961875367233075</v>
+        <v>1.002386546189921</v>
       </c>
       <c r="L13">
-        <v>0.9981238196446287</v>
+        <v>1.001846928717757</v>
       </c>
       <c r="M13">
-        <v>1.004197329830441</v>
+        <v>0.9968441632373253</v>
       </c>
       <c r="N13">
-        <v>1.004197329830441</v>
+        <v>0.9968441632373253</v>
       </c>
       <c r="O13">
-        <v>1.004531839047987</v>
+        <v>0.996441993373347</v>
       </c>
       <c r="P13">
-        <v>1.00152739879473</v>
+        <v>0.9986916242215238</v>
       </c>
       <c r="Q13">
-        <v>1.00152739879473</v>
+        <v>0.9986916242215238</v>
       </c>
       <c r="R13">
-        <v>1.000192433276874</v>
+        <v>0.9996153547136231</v>
       </c>
       <c r="S13">
-        <v>1.000192433276874</v>
+        <v>0.9996153547136231</v>
       </c>
       <c r="T13">
-        <v>1.000451336841311</v>
+        <v>0.9997565207504954</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9941947451407518</v>
+        <v>1.00361953794757</v>
       </c>
       <c r="D14">
-        <v>1.019839009164142</v>
+        <v>0.9930862346468268</v>
       </c>
       <c r="E14">
-        <v>0.9722494560419662</v>
+        <v>1.007830542718235</v>
       </c>
       <c r="F14">
-        <v>0.9911523237266607</v>
+        <v>1.003167861240339</v>
       </c>
       <c r="G14">
-        <v>0.9899002973575807</v>
+        <v>1.002981990740248</v>
       </c>
       <c r="H14">
-        <v>1.034263898309756</v>
+        <v>0.9871612451415434</v>
       </c>
       <c r="I14">
-        <v>1.034263898309756</v>
+        <v>0.9871612451415434</v>
       </c>
       <c r="J14">
-        <v>0.9941947451407518</v>
+        <v>1.00361953794757</v>
       </c>
       <c r="K14">
-        <v>0.9941947451407518</v>
+        <v>1.00361953794757</v>
       </c>
       <c r="L14">
-        <v>0.9899002973575807</v>
+        <v>1.002981990740248</v>
       </c>
       <c r="M14">
-        <v>1.012082097833668</v>
+        <v>0.9950716179408956</v>
       </c>
       <c r="N14">
-        <v>1.012082097833668</v>
+        <v>0.9950716179408956</v>
       </c>
       <c r="O14">
-        <v>1.014667734943826</v>
+        <v>0.9944098235095393</v>
       </c>
       <c r="P14">
-        <v>1.006119646936029</v>
+        <v>0.997920924609787</v>
       </c>
       <c r="Q14">
-        <v>1.00611964693603</v>
+        <v>0.997920924609787</v>
       </c>
       <c r="R14">
-        <v>1.00313842148721</v>
+        <v>0.9993455779442326</v>
       </c>
       <c r="S14">
-        <v>1.00313842148721</v>
+        <v>0.9993455779442326</v>
       </c>
       <c r="T14">
-        <v>1.000266621623476</v>
+        <v>0.9996412354057936</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9962635807468857</v>
+        <v>1.001309482518511</v>
       </c>
       <c r="D15">
-        <v>1.005197898253381</v>
+        <v>0.9975200882603467</v>
       </c>
       <c r="E15">
-        <v>0.995283119500201</v>
+        <v>1.002795861220351</v>
       </c>
       <c r="F15">
-        <v>0.9975645962154627</v>
+        <v>1.001136877048508</v>
       </c>
       <c r="G15">
-        <v>0.9980999993268769</v>
+        <v>1.001065849812973</v>
       </c>
       <c r="H15">
-        <v>1.010223441416992</v>
+        <v>0.9953885516243147</v>
       </c>
       <c r="I15">
-        <v>1.010223441416992</v>
+        <v>0.9953885516243147</v>
       </c>
       <c r="J15">
-        <v>0.9962635807468857</v>
+        <v>1.001309482518511</v>
       </c>
       <c r="K15">
-        <v>0.9962635807468857</v>
+        <v>1.001309482518511</v>
       </c>
       <c r="L15">
-        <v>0.9980999993268769</v>
+        <v>1.001065849812973</v>
       </c>
       <c r="M15">
-        <v>1.004161720371934</v>
+        <v>0.9982272007186439</v>
       </c>
       <c r="N15">
-        <v>1.004161720371934</v>
+        <v>0.9982272007186439</v>
       </c>
       <c r="O15">
-        <v>1.004507112999083</v>
+        <v>0.9979914965658782</v>
       </c>
       <c r="P15">
-        <v>1.001529007163585</v>
+        <v>0.9992546279852664</v>
       </c>
       <c r="Q15">
-        <v>1.001529007163585</v>
+        <v>0.9992546279852664</v>
       </c>
       <c r="R15">
-        <v>1.00021265055941</v>
+        <v>0.9997683416185776</v>
       </c>
       <c r="S15">
-        <v>1.00021265055941</v>
+        <v>0.9997683416185776</v>
       </c>
       <c r="T15">
-        <v>1.000438772576633</v>
+        <v>0.999869451747501</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.025070720901976</v>
+        <v>1.002532795082038</v>
       </c>
       <c r="D16">
-        <v>0.9516452186922202</v>
+        <v>0.99521239472805</v>
       </c>
       <c r="E16">
-        <v>1.055048302884152</v>
+        <v>1.005392063982304</v>
       </c>
       <c r="F16">
-        <v>1.022143065184829</v>
+        <v>1.002195057495993</v>
       </c>
       <c r="G16">
-        <v>1.020938279619081</v>
+        <v>1.002056075187685</v>
       </c>
       <c r="H16">
-        <v>0.9103433706832383</v>
+        <v>0.9910946667374783</v>
       </c>
       <c r="I16">
-        <v>0.9103433706832383</v>
+        <v>0.9910946667374783</v>
       </c>
       <c r="J16">
-        <v>1.025070720901976</v>
+        <v>1.002532795082038</v>
       </c>
       <c r="K16">
-        <v>1.025070720901976</v>
+        <v>1.002532795082038</v>
       </c>
       <c r="L16">
-        <v>1.020938279619081</v>
+        <v>1.002056075187685</v>
       </c>
       <c r="M16">
-        <v>0.9656408251511597</v>
+        <v>0.9965753709625818</v>
       </c>
       <c r="N16">
-        <v>0.9656408251511597</v>
+        <v>0.9965753709625818</v>
       </c>
       <c r="O16">
-        <v>0.96097562299818</v>
+        <v>0.9961210455510713</v>
       </c>
       <c r="P16">
-        <v>0.9854507904014317</v>
+        <v>0.9985611790024004</v>
       </c>
       <c r="Q16">
-        <v>0.9854507904014317</v>
+        <v>0.9985611790024004</v>
       </c>
       <c r="R16">
-        <v>0.9953557730265677</v>
+        <v>0.9995540830223097</v>
       </c>
       <c r="S16">
-        <v>0.9953557730265677</v>
+        <v>0.9995540830223097</v>
       </c>
       <c r="T16">
-        <v>0.9975314929942495</v>
+        <v>0.9997471755355914</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.019552101113845</v>
+        <v>1.004809450947916</v>
       </c>
       <c r="D17">
-        <v>0.9604641003706712</v>
+        <v>0.9908266462336995</v>
       </c>
       <c r="E17">
-        <v>1.04609948678147</v>
+        <v>1.010381731655853</v>
       </c>
       <c r="F17">
-        <v>1.018054554373768</v>
+        <v>1.004203564215782</v>
       </c>
       <c r="G17">
-        <v>1.017438288771451</v>
+        <v>1.0039542369145</v>
       </c>
       <c r="H17">
-        <v>0.927227097401257</v>
+        <v>0.9829613139624871</v>
       </c>
       <c r="I17">
-        <v>0.927227097401257</v>
+        <v>0.9829613139624871</v>
       </c>
       <c r="J17">
-        <v>1.019552101113845</v>
+        <v>1.004809450947916</v>
       </c>
       <c r="K17">
-        <v>1.019552101113845</v>
+        <v>1.004809450947916</v>
       </c>
       <c r="L17">
-        <v>1.017438288771451</v>
+        <v>1.0039542369145</v>
       </c>
       <c r="M17">
-        <v>0.9723326930863538</v>
+        <v>0.9934577754384935</v>
       </c>
       <c r="N17">
-        <v>0.9723326930863538</v>
+        <v>0.9934577754384935</v>
       </c>
       <c r="O17">
-        <v>0.9683764955144597</v>
+        <v>0.9925807323702288</v>
       </c>
       <c r="P17">
-        <v>0.9880724957621844</v>
+        <v>0.9972416672749679</v>
       </c>
       <c r="Q17">
-        <v>0.9880724957621844</v>
+        <v>0.9972416672749679</v>
       </c>
       <c r="R17">
-        <v>0.9959423971000996</v>
+        <v>0.9991336131932049</v>
       </c>
       <c r="S17">
-        <v>0.9959423971000996</v>
+        <v>0.9991336131932049</v>
       </c>
       <c r="T17">
-        <v>0.9981392714687437</v>
+        <v>0.999522823988373</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.008509226567725</v>
+        <v>1.007032665266514</v>
       </c>
       <c r="D18">
-        <v>0.9781952143202861</v>
+        <v>0.9865463301562371</v>
       </c>
       <c r="E18">
-        <v>1.02804628353551</v>
+        <v>1.015249953071688</v>
       </c>
       <c r="F18">
-        <v>1.009837048578974</v>
+        <v>1.006163854034794</v>
       </c>
       <c r="G18">
-        <v>1.010383483097637</v>
+        <v>1.005806326690169</v>
       </c>
       <c r="H18">
-        <v>0.9611435809994016</v>
+        <v>0.9750227585371251</v>
       </c>
       <c r="I18">
-        <v>0.9611435809994016</v>
+        <v>0.9750227585371251</v>
       </c>
       <c r="J18">
-        <v>1.008509226567725</v>
+        <v>1.007032665266514</v>
       </c>
       <c r="K18">
-        <v>1.008509226567725</v>
+        <v>1.007032665266514</v>
       </c>
       <c r="L18">
-        <v>1.010383483097637</v>
+        <v>1.005806326690169</v>
       </c>
       <c r="M18">
-        <v>0.9857635320485194</v>
+        <v>0.990414542613647</v>
       </c>
       <c r="N18">
-        <v>0.9857635320485194</v>
+        <v>0.990414542613647</v>
       </c>
       <c r="O18">
-        <v>0.9832407594724417</v>
+        <v>0.9891251384611771</v>
       </c>
       <c r="P18">
-        <v>0.9933454302215879</v>
+        <v>0.9959539168312693</v>
       </c>
       <c r="Q18">
-        <v>0.9933454302215879</v>
+        <v>0.9959539168312693</v>
       </c>
       <c r="R18">
-        <v>0.9971363793081223</v>
+        <v>0.9987236039400805</v>
       </c>
       <c r="S18">
-        <v>0.9971363793081223</v>
+        <v>0.9987236039400805</v>
       </c>
       <c r="T18">
-        <v>0.9993524728499225</v>
+        <v>0.9993036479594212</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.008817380945834</v>
+        <v>1.00006626645781</v>
       </c>
       <c r="D19">
-        <v>0.976213523314081</v>
+        <v>0.9998241175320811</v>
       </c>
       <c r="E19">
-        <v>1.03113148548931</v>
+        <v>1.000228962400449</v>
       </c>
       <c r="F19">
-        <v>1.010706449526918</v>
+        <v>1.000079220222812</v>
       </c>
       <c r="G19">
-        <v>1.011483847699509</v>
+        <v>1.000084554532461</v>
       </c>
       <c r="H19">
-        <v>0.9578738492882941</v>
+        <v>0.9996879067902127</v>
       </c>
       <c r="I19">
-        <v>0.9578738492882941</v>
+        <v>0.9996879067902127</v>
       </c>
       <c r="J19">
-        <v>1.008817380945834</v>
+        <v>1.00006626645781</v>
       </c>
       <c r="K19">
-        <v>1.008817380945834</v>
+        <v>1.00006626645781</v>
       </c>
       <c r="L19">
-        <v>1.011483847699509</v>
+        <v>1.000084554532461</v>
       </c>
       <c r="M19">
-        <v>0.9846788484939014</v>
+        <v>0.9998862306613369</v>
       </c>
       <c r="N19">
-        <v>0.9846788484939014</v>
+        <v>0.9998862306613369</v>
       </c>
       <c r="O19">
-        <v>0.9818570734339612</v>
+        <v>0.9998655262849182</v>
       </c>
       <c r="P19">
-        <v>0.9927250259778789</v>
+        <v>0.9999462425934945</v>
       </c>
       <c r="Q19">
-        <v>0.9927250259778789</v>
+        <v>0.9999462425934945</v>
       </c>
       <c r="R19">
-        <v>0.9967481147198676</v>
+        <v>0.9999762485595733</v>
       </c>
       <c r="S19">
-        <v>0.9967481147198676</v>
+        <v>0.9999762485595733</v>
       </c>
       <c r="T19">
-        <v>0.9993710893773242</v>
+        <v>0.9999951713226375</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9999531306024411</v>
+        <v>1.000174689498333</v>
       </c>
       <c r="D20">
-        <v>0.9999915300693015</v>
+        <v>0.9995515087840995</v>
       </c>
       <c r="E20">
-        <v>1.000068736214387</v>
+        <v>1.000577253298253</v>
       </c>
       <c r="F20">
-        <v>1.00000116320404</v>
+        <v>1.00020231333131</v>
       </c>
       <c r="G20">
-        <v>1.00002093298893</v>
+        <v>1.000213684640225</v>
       </c>
       <c r="H20">
-        <v>1.000013127626755</v>
+        <v>0.9992009674736235</v>
       </c>
       <c r="I20">
-        <v>1.000013127626755</v>
+        <v>0.9992009674736235</v>
       </c>
       <c r="J20">
-        <v>0.9999531306024411</v>
+        <v>1.000174689498333</v>
       </c>
       <c r="K20">
-        <v>0.9999531306024411</v>
+        <v>1.000174689498333</v>
       </c>
       <c r="L20">
-        <v>1.00002093298893</v>
+        <v>1.000213684640225</v>
       </c>
       <c r="M20">
-        <v>1.000017030307843</v>
+        <v>0.9997073260569244</v>
       </c>
       <c r="N20">
-        <v>1.000017030307843</v>
+        <v>0.9997073260569244</v>
       </c>
       <c r="O20">
-        <v>1.000008530228329</v>
+        <v>0.9996553869659827</v>
       </c>
       <c r="P20">
-        <v>0.9999957304060421</v>
+        <v>0.9998631138707273</v>
       </c>
       <c r="Q20">
-        <v>0.9999957304060422</v>
+        <v>0.9998631138707273</v>
       </c>
       <c r="R20">
-        <v>0.9999850804551419</v>
+        <v>0.9999410077776287</v>
       </c>
       <c r="S20">
-        <v>0.9999850804551419</v>
+        <v>0.9999410077776287</v>
       </c>
       <c r="T20">
-        <v>1.000008103450976</v>
+        <v>0.9999867361709741</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.000147603662803</v>
+        <v>1.000258078454604</v>
       </c>
       <c r="D21">
-        <v>0.9997820084782264</v>
+        <v>0.9993715909366386</v>
       </c>
       <c r="E21">
-        <v>1.000208304985065</v>
+        <v>1.000793481459856</v>
       </c>
       <c r="F21">
-        <v>1.000101653084056</v>
+        <v>1.000284179355895</v>
       </c>
       <c r="G21">
-        <v>1.000082747304931</v>
+        <v>1.00029492368854</v>
       </c>
       <c r="H21">
-        <v>0.9995763587594434</v>
+        <v>0.9988729391563623</v>
       </c>
       <c r="I21">
-        <v>0.9995763587594434</v>
+        <v>0.9988729391563623</v>
       </c>
       <c r="J21">
-        <v>1.000147603662803</v>
+        <v>1.000258078454604</v>
       </c>
       <c r="K21">
-        <v>1.000147603662803</v>
+        <v>1.000258078454604</v>
       </c>
       <c r="L21">
-        <v>1.000082747304931</v>
+        <v>1.00029492368854</v>
       </c>
       <c r="M21">
-        <v>0.999829553032187</v>
+        <v>0.9995839314224513</v>
       </c>
       <c r="N21">
-        <v>0.999829553032187</v>
+        <v>0.9995839314224513</v>
       </c>
       <c r="O21">
-        <v>0.9998137048475334</v>
+        <v>0.9995131512605138</v>
       </c>
       <c r="P21">
-        <v>0.999935569909059</v>
+        <v>0.9998086470998354</v>
       </c>
       <c r="Q21">
-        <v>0.999935569909059</v>
+        <v>0.9998086470998354</v>
       </c>
       <c r="R21">
-        <v>0.999988578347495</v>
+        <v>0.9999210049385276</v>
       </c>
       <c r="S21">
-        <v>0.999988578347495</v>
+        <v>0.9999210049385276</v>
       </c>
       <c r="T21">
-        <v>0.9999831127124206</v>
+        <v>0.9999791988419826</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.000279512597129</v>
+        <v>1.000539067710982</v>
       </c>
       <c r="D22">
-        <v>0.9992406419932862</v>
+        <v>0.9986455853848238</v>
       </c>
       <c r="E22">
-        <v>1.000996110040136</v>
+        <v>1.001729990745021</v>
       </c>
       <c r="F22">
-        <v>1.000341683059259</v>
+        <v>1.000611586428438</v>
       </c>
       <c r="G22">
-        <v>1.000367271803629</v>
+        <v>1.000641436222243</v>
       </c>
       <c r="H22">
-        <v>0.9986562749219536</v>
+        <v>0.9975804993958292</v>
       </c>
       <c r="I22">
-        <v>0.9986562749219536</v>
+        <v>0.9975804993958292</v>
       </c>
       <c r="J22">
-        <v>1.000279512597129</v>
+        <v>1.000539067710982</v>
       </c>
       <c r="K22">
-        <v>1.000279512597129</v>
+        <v>1.000539067710982</v>
       </c>
       <c r="L22">
-        <v>1.000367271803629</v>
+        <v>1.000641436222243</v>
       </c>
       <c r="M22">
-        <v>0.9995117733627913</v>
+        <v>0.9991109678090362</v>
       </c>
       <c r="N22">
-        <v>0.9995117733627913</v>
+        <v>0.9991109678090362</v>
       </c>
       <c r="O22">
-        <v>0.9994213962396229</v>
+        <v>0.9989558403342987</v>
       </c>
       <c r="P22">
-        <v>0.9997676864409039</v>
+        <v>0.9995870011096848</v>
       </c>
       <c r="Q22">
-        <v>0.9997676864409039</v>
+        <v>0.9995870011096848</v>
       </c>
       <c r="R22">
-        <v>0.9998956429799601</v>
+        <v>0.999825017760009</v>
       </c>
       <c r="S22">
-        <v>0.9998956429799601</v>
+        <v>0.999825017760009</v>
       </c>
       <c r="T22">
-        <v>0.9999802490692321</v>
+        <v>0.9999580276478893</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.000928125140496</v>
+      </c>
+      <c r="D23">
+        <v>0.9977521925456092</v>
+      </c>
+      <c r="E23">
+        <v>1.00283251893652</v>
+      </c>
+      <c r="F23">
+        <v>1.001016770225431</v>
+      </c>
+      <c r="G23">
+        <v>1.001053257428353</v>
+      </c>
+      <c r="H23">
+        <v>0.995965729753739</v>
+      </c>
+      <c r="I23">
+        <v>0.995965729753739</v>
+      </c>
+      <c r="J23">
+        <v>1.000928125140496</v>
+      </c>
+      <c r="K23">
+        <v>1.000928125140496</v>
+      </c>
+      <c r="L23">
+        <v>1.001053257428353</v>
+      </c>
+      <c r="M23">
+        <v>0.998509493591046</v>
+      </c>
+      <c r="N23">
+        <v>0.998509493591046</v>
+      </c>
+      <c r="O23">
+        <v>0.9982570599092337</v>
+      </c>
+      <c r="P23">
+        <v>0.9993157041075292</v>
+      </c>
+      <c r="Q23">
+        <v>0.9993157041075292</v>
+      </c>
+      <c r="R23">
+        <v>0.9997188093657708</v>
+      </c>
+      <c r="S23">
+        <v>0.9997188093657708</v>
+      </c>
+      <c r="T23">
+        <v>0.9999247656716914</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9943765283846456</v>
+      </c>
+      <c r="D24">
+        <v>1.019834248092231</v>
+      </c>
+      <c r="E24">
+        <v>0.9720481585830212</v>
+      </c>
+      <c r="F24">
+        <v>0.9911639890536953</v>
+      </c>
+      <c r="G24">
+        <v>0.9898419563533701</v>
+      </c>
+      <c r="H24">
+        <v>1.034154224275527</v>
+      </c>
+      <c r="I24">
+        <v>1.034154224275527</v>
+      </c>
+      <c r="J24">
+        <v>0.9943765283846456</v>
+      </c>
+      <c r="K24">
+        <v>0.9943765283846456</v>
+      </c>
+      <c r="L24">
+        <v>0.9898419563533701</v>
+      </c>
+      <c r="M24">
+        <v>1.011998090314449</v>
+      </c>
+      <c r="N24">
+        <v>1.011998090314449</v>
+      </c>
+      <c r="O24">
+        <v>1.014610142907043</v>
+      </c>
+      <c r="P24">
+        <v>1.006124236337848</v>
+      </c>
+      <c r="Q24">
+        <v>1.006124236337848</v>
+      </c>
+      <c r="R24">
+        <v>1.003187309349547</v>
+      </c>
+      <c r="S24">
+        <v>1.003187309349547</v>
+      </c>
+      <c r="T24">
+        <v>1.000236517457082</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9961875367233075</v>
+      </c>
+      <c r="D25">
+        <v>1.005200857483079</v>
+      </c>
+      <c r="E25">
+        <v>0.9953656638796829</v>
+      </c>
+      <c r="F25">
+        <v>0.9975593033009118</v>
+      </c>
+      <c r="G25">
+        <v>0.9981238196446287</v>
+      </c>
+      <c r="H25">
+        <v>1.010270840016253</v>
+      </c>
+      <c r="I25">
+        <v>1.010270840016253</v>
+      </c>
+      <c r="J25">
+        <v>0.9961875367233075</v>
+      </c>
+      <c r="K25">
+        <v>0.9961875367233075</v>
+      </c>
+      <c r="L25">
+        <v>0.9981238196446287</v>
+      </c>
+      <c r="M25">
+        <v>1.004197329830441</v>
+      </c>
+      <c r="N25">
+        <v>1.004197329830441</v>
+      </c>
+      <c r="O25">
+        <v>1.004531839047987</v>
+      </c>
+      <c r="P25">
+        <v>1.00152739879473</v>
+      </c>
+      <c r="Q25">
+        <v>1.00152739879473</v>
+      </c>
+      <c r="R25">
+        <v>1.000192433276874</v>
+      </c>
+      <c r="S25">
+        <v>1.000192433276874</v>
+      </c>
+      <c r="T25">
+        <v>1.000451336841311</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9941947451407518</v>
+      </c>
+      <c r="D26">
+        <v>1.019839009164142</v>
+      </c>
+      <c r="E26">
+        <v>0.9722494560419662</v>
+      </c>
+      <c r="F26">
+        <v>0.9911523237266607</v>
+      </c>
+      <c r="G26">
+        <v>0.9899002973575807</v>
+      </c>
+      <c r="H26">
+        <v>1.034263898309756</v>
+      </c>
+      <c r="I26">
+        <v>1.034263898309756</v>
+      </c>
+      <c r="J26">
+        <v>0.9941947451407518</v>
+      </c>
+      <c r="K26">
+        <v>0.9941947451407518</v>
+      </c>
+      <c r="L26">
+        <v>0.9899002973575807</v>
+      </c>
+      <c r="M26">
+        <v>1.012082097833668</v>
+      </c>
+      <c r="N26">
+        <v>1.012082097833668</v>
+      </c>
+      <c r="O26">
+        <v>1.014667734943826</v>
+      </c>
+      <c r="P26">
+        <v>1.006119646936029</v>
+      </c>
+      <c r="Q26">
+        <v>1.00611964693603</v>
+      </c>
+      <c r="R26">
+        <v>1.00313842148721</v>
+      </c>
+      <c r="S26">
+        <v>1.00313842148721</v>
+      </c>
+      <c r="T26">
+        <v>1.000266621623476</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9962635807468857</v>
+      </c>
+      <c r="D27">
+        <v>1.005197898253381</v>
+      </c>
+      <c r="E27">
+        <v>0.995283119500201</v>
+      </c>
+      <c r="F27">
+        <v>0.9975645962154627</v>
+      </c>
+      <c r="G27">
+        <v>0.9980999993268769</v>
+      </c>
+      <c r="H27">
+        <v>1.010223441416992</v>
+      </c>
+      <c r="I27">
+        <v>1.010223441416992</v>
+      </c>
+      <c r="J27">
+        <v>0.9962635807468857</v>
+      </c>
+      <c r="K27">
+        <v>0.9962635807468857</v>
+      </c>
+      <c r="L27">
+        <v>0.9980999993268769</v>
+      </c>
+      <c r="M27">
+        <v>1.004161720371934</v>
+      </c>
+      <c r="N27">
+        <v>1.004161720371934</v>
+      </c>
+      <c r="O27">
+        <v>1.004507112999083</v>
+      </c>
+      <c r="P27">
+        <v>1.001529007163585</v>
+      </c>
+      <c r="Q27">
+        <v>1.001529007163585</v>
+      </c>
+      <c r="R27">
+        <v>1.00021265055941</v>
+      </c>
+      <c r="S27">
+        <v>1.00021265055941</v>
+      </c>
+      <c r="T27">
+        <v>1.000438772576633</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.025070720901976</v>
+      </c>
+      <c r="D28">
+        <v>0.9516452186922202</v>
+      </c>
+      <c r="E28">
+        <v>1.055048302884152</v>
+      </c>
+      <c r="F28">
+        <v>1.022143065184829</v>
+      </c>
+      <c r="G28">
+        <v>1.020938279619081</v>
+      </c>
+      <c r="H28">
+        <v>0.9103433706832383</v>
+      </c>
+      <c r="I28">
+        <v>0.9103433706832383</v>
+      </c>
+      <c r="J28">
+        <v>1.025070720901976</v>
+      </c>
+      <c r="K28">
+        <v>1.025070720901976</v>
+      </c>
+      <c r="L28">
+        <v>1.020938279619081</v>
+      </c>
+      <c r="M28">
+        <v>0.9656408251511597</v>
+      </c>
+      <c r="N28">
+        <v>0.9656408251511597</v>
+      </c>
+      <c r="O28">
+        <v>0.96097562299818</v>
+      </c>
+      <c r="P28">
+        <v>0.9854507904014317</v>
+      </c>
+      <c r="Q28">
+        <v>0.9854507904014317</v>
+      </c>
+      <c r="R28">
+        <v>0.9953557730265677</v>
+      </c>
+      <c r="S28">
+        <v>0.9953557730265677</v>
+      </c>
+      <c r="T28">
+        <v>0.9975314929942495</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.019552101113845</v>
+      </c>
+      <c r="D29">
+        <v>0.9604641003706712</v>
+      </c>
+      <c r="E29">
+        <v>1.04609948678147</v>
+      </c>
+      <c r="F29">
+        <v>1.018054554373768</v>
+      </c>
+      <c r="G29">
+        <v>1.017438288771451</v>
+      </c>
+      <c r="H29">
+        <v>0.927227097401257</v>
+      </c>
+      <c r="I29">
+        <v>0.927227097401257</v>
+      </c>
+      <c r="J29">
+        <v>1.019552101113845</v>
+      </c>
+      <c r="K29">
+        <v>1.019552101113845</v>
+      </c>
+      <c r="L29">
+        <v>1.017438288771451</v>
+      </c>
+      <c r="M29">
+        <v>0.9723326930863538</v>
+      </c>
+      <c r="N29">
+        <v>0.9723326930863538</v>
+      </c>
+      <c r="O29">
+        <v>0.9683764955144597</v>
+      </c>
+      <c r="P29">
+        <v>0.9880724957621844</v>
+      </c>
+      <c r="Q29">
+        <v>0.9880724957621844</v>
+      </c>
+      <c r="R29">
+        <v>0.9959423971000996</v>
+      </c>
+      <c r="S29">
+        <v>0.9959423971000996</v>
+      </c>
+      <c r="T29">
+        <v>0.9981392714687437</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.008509226567725</v>
+      </c>
+      <c r="D30">
+        <v>0.9781952143202861</v>
+      </c>
+      <c r="E30">
+        <v>1.02804628353551</v>
+      </c>
+      <c r="F30">
+        <v>1.009837048578974</v>
+      </c>
+      <c r="G30">
+        <v>1.010383483097637</v>
+      </c>
+      <c r="H30">
+        <v>0.9611435809994016</v>
+      </c>
+      <c r="I30">
+        <v>0.9611435809994016</v>
+      </c>
+      <c r="J30">
+        <v>1.008509226567725</v>
+      </c>
+      <c r="K30">
+        <v>1.008509226567725</v>
+      </c>
+      <c r="L30">
+        <v>1.010383483097637</v>
+      </c>
+      <c r="M30">
+        <v>0.9857635320485194</v>
+      </c>
+      <c r="N30">
+        <v>0.9857635320485194</v>
+      </c>
+      <c r="O30">
+        <v>0.9832407594724417</v>
+      </c>
+      <c r="P30">
+        <v>0.9933454302215879</v>
+      </c>
+      <c r="Q30">
+        <v>0.9933454302215879</v>
+      </c>
+      <c r="R30">
+        <v>0.9971363793081223</v>
+      </c>
+      <c r="S30">
+        <v>0.9971363793081223</v>
+      </c>
+      <c r="T30">
+        <v>0.9993524728499225</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.008817380945834</v>
+      </c>
+      <c r="D31">
+        <v>0.976213523314081</v>
+      </c>
+      <c r="E31">
+        <v>1.03113148548931</v>
+      </c>
+      <c r="F31">
+        <v>1.010706449526918</v>
+      </c>
+      <c r="G31">
+        <v>1.011483847699509</v>
+      </c>
+      <c r="H31">
+        <v>0.9578738492882941</v>
+      </c>
+      <c r="I31">
+        <v>0.9578738492882941</v>
+      </c>
+      <c r="J31">
+        <v>1.008817380945834</v>
+      </c>
+      <c r="K31">
+        <v>1.008817380945834</v>
+      </c>
+      <c r="L31">
+        <v>1.011483847699509</v>
+      </c>
+      <c r="M31">
+        <v>0.9846788484939014</v>
+      </c>
+      <c r="N31">
+        <v>0.9846788484939014</v>
+      </c>
+      <c r="O31">
+        <v>0.9818570734339612</v>
+      </c>
+      <c r="P31">
+        <v>0.9927250259778789</v>
+      </c>
+      <c r="Q31">
+        <v>0.9927250259778789</v>
+      </c>
+      <c r="R31">
+        <v>0.9967481147198676</v>
+      </c>
+      <c r="S31">
+        <v>0.9967481147198676</v>
+      </c>
+      <c r="T31">
+        <v>0.9993710893773242</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1.030740630136986</v>
+      </c>
+      <c r="D32">
+        <v>0.9427469531506847</v>
+      </c>
+      <c r="E32">
+        <v>1.063960534246575</v>
+      </c>
+      <c r="F32">
+        <v>1.026273757534247</v>
+      </c>
+      <c r="G32">
+        <v>1.024435552054795</v>
+      </c>
+      <c r="H32">
+        <v>0.8932505061643837</v>
+      </c>
+      <c r="I32">
+        <v>0.8932505061643837</v>
+      </c>
+      <c r="J32">
+        <v>1.030740630136986</v>
+      </c>
+      <c r="K32">
+        <v>1.030740630136986</v>
+      </c>
+      <c r="L32">
+        <v>1.024435552054795</v>
+      </c>
+      <c r="M32">
+        <v>0.9588430291095893</v>
+      </c>
+      <c r="N32">
+        <v>0.9588430291095893</v>
+      </c>
+      <c r="O32">
+        <v>0.9534776704566211</v>
+      </c>
+      <c r="P32">
+        <v>0.9828088961187217</v>
+      </c>
+      <c r="Q32">
+        <v>0.9828088961187217</v>
+      </c>
+      <c r="R32">
+        <v>0.9947918296232878</v>
+      </c>
+      <c r="S32">
+        <v>0.9947918296232878</v>
+      </c>
+      <c r="T32">
+        <v>0.996901322214612</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.007175011052631</v>
+      </c>
+      <c r="D33">
+        <v>0.974362964736842</v>
+      </c>
+      <c r="E33">
+        <v>1.036237553684211</v>
+      </c>
+      <c r="F33">
+        <v>1.011416143684211</v>
+      </c>
+      <c r="G33">
+        <v>1.01316148</v>
+      </c>
+      <c r="H33">
+        <v>0.9559061805263157</v>
+      </c>
+      <c r="I33">
+        <v>0.9559061805263157</v>
+      </c>
+      <c r="J33">
+        <v>1.007175011052631</v>
+      </c>
+      <c r="K33">
+        <v>1.007175011052631</v>
+      </c>
+      <c r="L33">
+        <v>1.01316148</v>
+      </c>
+      <c r="M33">
+        <v>0.9845338302631577</v>
+      </c>
+      <c r="N33">
+        <v>0.9845338302631577</v>
+      </c>
+      <c r="O33">
+        <v>0.9811435417543858</v>
+      </c>
+      <c r="P33">
+        <v>0.9920808905263155</v>
+      </c>
+      <c r="Q33">
+        <v>0.9920808905263158</v>
+      </c>
+      <c r="R33">
+        <v>0.9958544206578946</v>
+      </c>
+      <c r="S33">
+        <v>0.9958544206578946</v>
+      </c>
+      <c r="T33">
+        <v>0.9997098889473685</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.012966863157895</v>
+      </c>
+      <c r="D34">
+        <v>0.9741681268421052</v>
+      </c>
+      <c r="E34">
+        <v>1.029899100526316</v>
+      </c>
+      <c r="F34">
+        <v>1.01180661</v>
+      </c>
+      <c r="G34">
+        <v>1.011329145263158</v>
+      </c>
+      <c r="H34">
+        <v>0.952343812631579</v>
+      </c>
+      <c r="I34">
+        <v>0.952343812631579</v>
+      </c>
+      <c r="J34">
+        <v>1.012966863157895</v>
+      </c>
+      <c r="K34">
+        <v>1.012966863157895</v>
+      </c>
+      <c r="L34">
+        <v>1.011329145263158</v>
+      </c>
+      <c r="M34">
+        <v>0.9818364789473684</v>
+      </c>
+      <c r="N34">
+        <v>0.9818364789473684</v>
+      </c>
+      <c r="O34">
+        <v>0.9792803615789474</v>
+      </c>
+      <c r="P34">
+        <v>0.9922132736842105</v>
+      </c>
+      <c r="Q34">
+        <v>0.9922132736842105</v>
+      </c>
+      <c r="R34">
+        <v>0.9974016710526317</v>
+      </c>
+      <c r="S34">
+        <v>0.9974016710526317</v>
+      </c>
+      <c r="T34">
+        <v>0.9987522764035087</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>1.031269694637367</v>
+      </c>
+      <c r="D35">
+        <v>0.913451646946391</v>
+      </c>
+      <c r="E35">
+        <v>1.114210522279903</v>
+      </c>
+      <c r="F35">
+        <v>1.038912935954604</v>
+      </c>
+      <c r="G35">
+        <v>1.042058328586792</v>
+      </c>
+      <c r="H35">
+        <v>0.8471789878131131</v>
+      </c>
+      <c r="I35">
+        <v>0.8471789878131131</v>
+      </c>
+      <c r="J35">
+        <v>1.031269694637367</v>
+      </c>
+      <c r="K35">
+        <v>1.031269694637367</v>
+      </c>
+      <c r="L35">
+        <v>1.042058328586792</v>
+      </c>
+      <c r="M35">
+        <v>0.9446186581999527</v>
+      </c>
+      <c r="N35">
+        <v>0.9446186581999527</v>
+      </c>
+      <c r="O35">
+        <v>0.9342296544487655</v>
+      </c>
+      <c r="P35">
+        <v>0.9735023370124241</v>
+      </c>
+      <c r="Q35">
+        <v>0.9735023370124241</v>
+      </c>
+      <c r="R35">
+        <v>0.9879441764186598</v>
+      </c>
+      <c r="S35">
+        <v>0.9879441764186598</v>
+      </c>
+      <c r="T35">
+        <v>0.9978470193696949</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.9999531306024411</v>
+      </c>
+      <c r="D36">
+        <v>0.9999915300693015</v>
+      </c>
+      <c r="E36">
+        <v>1.000068736214387</v>
+      </c>
+      <c r="F36">
+        <v>1.00000116320404</v>
+      </c>
+      <c r="G36">
+        <v>1.00002093298893</v>
+      </c>
+      <c r="H36">
+        <v>1.000013127626755</v>
+      </c>
+      <c r="I36">
+        <v>1.000013127626755</v>
+      </c>
+      <c r="J36">
+        <v>0.9999531306024411</v>
+      </c>
+      <c r="K36">
+        <v>0.9999531306024411</v>
+      </c>
+      <c r="L36">
+        <v>1.00002093298893</v>
+      </c>
+      <c r="M36">
+        <v>1.000017030307843</v>
+      </c>
+      <c r="N36">
+        <v>1.000017030307843</v>
+      </c>
+      <c r="O36">
+        <v>1.000008530228329</v>
+      </c>
+      <c r="P36">
+        <v>0.9999957304060421</v>
+      </c>
+      <c r="Q36">
+        <v>0.9999957304060422</v>
+      </c>
+      <c r="R36">
+        <v>0.9999850804551419</v>
+      </c>
+      <c r="S36">
+        <v>0.9999850804551419</v>
+      </c>
+      <c r="T36">
+        <v>1.000008103450976</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.000147603662803</v>
+      </c>
+      <c r="D37">
+        <v>0.9997820084782264</v>
+      </c>
+      <c r="E37">
+        <v>1.000208304985065</v>
+      </c>
+      <c r="F37">
+        <v>1.000101653084056</v>
+      </c>
+      <c r="G37">
+        <v>1.000082747304931</v>
+      </c>
+      <c r="H37">
+        <v>0.9995763587594434</v>
+      </c>
+      <c r="I37">
+        <v>0.9995763587594434</v>
+      </c>
+      <c r="J37">
+        <v>1.000147603662803</v>
+      </c>
+      <c r="K37">
+        <v>1.000147603662803</v>
+      </c>
+      <c r="L37">
+        <v>1.000082747304931</v>
+      </c>
+      <c r="M37">
+        <v>0.999829553032187</v>
+      </c>
+      <c r="N37">
+        <v>0.999829553032187</v>
+      </c>
+      <c r="O37">
+        <v>0.9998137048475334</v>
+      </c>
+      <c r="P37">
+        <v>0.999935569909059</v>
+      </c>
+      <c r="Q37">
+        <v>0.999935569909059</v>
+      </c>
+      <c r="R37">
+        <v>0.999988578347495</v>
+      </c>
+      <c r="S37">
+        <v>0.999988578347495</v>
+      </c>
+      <c r="T37">
+        <v>0.9999831127124206</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.000279512597129</v>
+      </c>
+      <c r="D38">
+        <v>0.9992406419932862</v>
+      </c>
+      <c r="E38">
+        <v>1.000996110040136</v>
+      </c>
+      <c r="F38">
+        <v>1.000341683059259</v>
+      </c>
+      <c r="G38">
+        <v>1.000367271803629</v>
+      </c>
+      <c r="H38">
+        <v>0.9986562749219536</v>
+      </c>
+      <c r="I38">
+        <v>0.9986562749219536</v>
+      </c>
+      <c r="J38">
+        <v>1.000279512597129</v>
+      </c>
+      <c r="K38">
+        <v>1.000279512597129</v>
+      </c>
+      <c r="L38">
+        <v>1.000367271803629</v>
+      </c>
+      <c r="M38">
+        <v>0.9995117733627913</v>
+      </c>
+      <c r="N38">
+        <v>0.9995117733627913</v>
+      </c>
+      <c r="O38">
+        <v>0.9994213962396229</v>
+      </c>
+      <c r="P38">
+        <v>0.9997676864409039</v>
+      </c>
+      <c r="Q38">
+        <v>0.9997676864409039</v>
+      </c>
+      <c r="R38">
+        <v>0.9998956429799601</v>
+      </c>
+      <c r="S38">
+        <v>0.9998956429799601</v>
+      </c>
+      <c r="T38">
+        <v>0.9999802490692321</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.00053430293941</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.9982251317785074</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.002465442431171</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.000792336916367</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.000898530807781</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.9969262242892121</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.9969262242892121</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.00053430293941</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.00053430293941</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.000898530807781</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9989123775484964</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.9989123775484964</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.9986832956251668</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9994530193454674</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.9994530193454674</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9997233402439529</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9997233402439529</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.9999736615270747</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.003206080301396</v>
+      </c>
+      <c r="D40">
+        <v>0.9918859624338546</v>
+      </c>
+      <c r="E40">
+        <v>1.01039097466171</v>
+      </c>
+      <c r="F40">
+        <v>1.003662675519706</v>
+      </c>
+      <c r="G40">
+        <v>1.003850580152841</v>
+      </c>
+      <c r="H40">
+        <v>0.9855183938421919</v>
+      </c>
+      <c r="I40">
+        <v>0.9855183938421919</v>
+      </c>
+      <c r="J40">
+        <v>1.003206080301396</v>
+      </c>
+      <c r="K40">
+        <v>1.003206080301396</v>
+      </c>
+      <c r="L40">
+        <v>1.003850580152841</v>
+      </c>
+      <c r="M40">
+        <v>0.9946844869975163</v>
+      </c>
+      <c r="N40">
+        <v>0.9946844869975163</v>
+      </c>
+      <c r="O40">
+        <v>0.9937516454762957</v>
+      </c>
+      <c r="P40">
+        <v>0.9975250180988097</v>
+      </c>
+      <c r="Q40">
+        <v>0.9975250180988097</v>
+      </c>
+      <c r="R40">
+        <v>0.9989452836494563</v>
+      </c>
+      <c r="S40">
+        <v>0.9989452836494563</v>
+      </c>
+      <c r="T40">
+        <v>0.9997524444852833</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.998228285180859</v>
+      </c>
+      <c r="D41">
+        <v>1.00475819361426</v>
+      </c>
+      <c r="E41">
+        <v>0.9937816418435825</v>
+      </c>
+      <c r="F41">
+        <v>0.9978578847911729</v>
+      </c>
+      <c r="G41">
+        <v>0.9977054594400789</v>
+      </c>
+      <c r="H41">
+        <v>1.008431264172871</v>
+      </c>
+      <c r="I41">
+        <v>1.008431264172871</v>
+      </c>
+      <c r="J41">
+        <v>0.998228285180859</v>
+      </c>
+      <c r="K41">
+        <v>0.998228285180859</v>
+      </c>
+      <c r="L41">
+        <v>0.9977054594400789</v>
+      </c>
+      <c r="M41">
+        <v>1.003068361806475</v>
+      </c>
+      <c r="N41">
+        <v>1.003068361806475</v>
+      </c>
+      <c r="O41">
+        <v>1.003631639075736</v>
+      </c>
+      <c r="P41">
+        <v>1.00145500293127</v>
+      </c>
+      <c r="Q41">
+        <v>1.001455002931269</v>
+      </c>
+      <c r="R41">
+        <v>1.000648323493667</v>
+      </c>
+      <c r="S41">
+        <v>1.000648323493667</v>
+      </c>
+      <c r="T41">
+        <v>1.000127121507137</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.015707773453459</v>
+      </c>
+      <c r="D42">
+        <v>0.9683315084865153</v>
+      </c>
+      <c r="E42">
+        <v>1.036872444562121</v>
+      </c>
+      <c r="F42">
+        <v>1.014464263544167</v>
+      </c>
+      <c r="G42">
+        <v>1.013952538751272</v>
+      </c>
+      <c r="H42">
+        <v>0.9416823605940935</v>
+      </c>
+      <c r="I42">
+        <v>0.9416823605940935</v>
+      </c>
+      <c r="J42">
+        <v>1.015707773453459</v>
+      </c>
+      <c r="K42">
+        <v>1.015707773453459</v>
+      </c>
+      <c r="L42">
+        <v>1.013952538751272</v>
+      </c>
+      <c r="M42">
+        <v>0.9778174496726826</v>
+      </c>
+      <c r="N42">
+        <v>0.9778174496726826</v>
+      </c>
+      <c r="O42">
+        <v>0.9746554692772934</v>
+      </c>
+      <c r="P42">
+        <v>0.9904475575996079</v>
+      </c>
+      <c r="Q42">
+        <v>0.9904475575996079</v>
+      </c>
+      <c r="R42">
+        <v>0.9967626115630706</v>
+      </c>
+      <c r="S42">
+        <v>0.9967626115630706</v>
+      </c>
+      <c r="T42">
+        <v>0.9985018148986046</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Gamma1F-HW35.xlsx
+++ b/JupyterNotebooks/AvgHW/Gamma1F-HW35.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
     <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.001309482518511</v>
+        <v>1.000174689498333</v>
       </c>
       <c r="D3">
-        <v>0.9953885516243147</v>
+        <v>0.9995515087840995</v>
       </c>
       <c r="E3">
-        <v>1.001065849812973</v>
+        <v>1.000577253298253</v>
       </c>
       <c r="F3">
-        <v>1.001309482518511</v>
+        <v>1.00020231333131</v>
       </c>
       <c r="G3">
-        <v>1.002795861220351</v>
+        <v>1.000213684640225</v>
       </c>
       <c r="H3">
-        <v>0.9975200882603467</v>
+        <v>0.9992009674736235</v>
       </c>
       <c r="I3">
-        <v>1.001136877048508</v>
+        <v>0.9992009674736235</v>
       </c>
       <c r="J3">
-        <v>0.9953885516243147</v>
+        <v>1.000174689498333</v>
       </c>
       <c r="K3">
-        <v>1.001309482518511</v>
+        <v>1.000174689498333</v>
       </c>
       <c r="L3">
-        <v>1.001065849812973</v>
+        <v>1.000213684640225</v>
       </c>
       <c r="M3">
-        <v>0.9982272007186439</v>
+        <v>0.9997073260569244</v>
       </c>
       <c r="N3">
-        <v>0.9982272007186439</v>
+        <v>0.9997073260569244</v>
       </c>
       <c r="O3">
-        <v>0.9979914965658782</v>
+        <v>0.9996553869659827</v>
       </c>
       <c r="P3">
-        <v>0.9992546279852664</v>
+        <v>0.9998631138707273</v>
       </c>
       <c r="Q3">
-        <v>0.9992546279852664</v>
+        <v>0.9998631138707273</v>
       </c>
       <c r="R3">
-        <v>0.9997683416185776</v>
+        <v>0.9999410077776287</v>
       </c>
       <c r="S3">
-        <v>0.9997683416185776</v>
+        <v>0.9999410077776287</v>
       </c>
       <c r="T3">
-        <v>0.999869451747501</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>0.9999867361709741</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.002532795082038</v>
+        <v>1.003206080301396</v>
       </c>
       <c r="D4">
-        <v>0.9910946667374783</v>
+        <v>0.9918859624338546</v>
       </c>
       <c r="E4">
-        <v>1.002056075187685</v>
+        <v>1.01039097466171</v>
       </c>
       <c r="F4">
-        <v>1.002532795082038</v>
+        <v>1.003662675519706</v>
       </c>
       <c r="G4">
-        <v>1.005392063982304</v>
+        <v>1.003850580152841</v>
       </c>
       <c r="H4">
-        <v>0.99521239472805</v>
+        <v>0.9855183938421919</v>
       </c>
       <c r="I4">
-        <v>1.002195057495993</v>
+        <v>0.9855183938421919</v>
       </c>
       <c r="J4">
-        <v>0.9910946667374783</v>
+        <v>1.003206080301396</v>
       </c>
       <c r="K4">
-        <v>1.002532795082038</v>
+        <v>1.003206080301396</v>
       </c>
       <c r="L4">
-        <v>1.002056075187685</v>
+        <v>1.003850580152841</v>
       </c>
       <c r="M4">
-        <v>0.9965753709625818</v>
+        <v>0.9946844869975163</v>
       </c>
       <c r="N4">
-        <v>0.9965753709625818</v>
+        <v>0.9946844869975163</v>
       </c>
       <c r="O4">
-        <v>0.9961210455510713</v>
+        <v>0.9937516454762957</v>
       </c>
       <c r="P4">
-        <v>0.9985611790024004</v>
+        <v>0.9975250180988097</v>
       </c>
       <c r="Q4">
-        <v>0.9985611790024004</v>
+        <v>0.9975250180988097</v>
       </c>
       <c r="R4">
-        <v>0.9995540830223097</v>
+        <v>0.9989452836494563</v>
       </c>
       <c r="S4">
-        <v>0.9995540830223097</v>
+        <v>0.9989452836494563</v>
       </c>
       <c r="T4">
-        <v>0.9997471755355914</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>0.9997524444852833</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.004809450947916</v>
+        <v>1.010142765317004</v>
       </c>
       <c r="D5">
-        <v>0.9829613139624872</v>
+        <v>0.9741727367507198</v>
       </c>
       <c r="E5">
-        <v>1.0039542369145</v>
+        <v>1.033146643191643</v>
       </c>
       <c r="F5">
-        <v>1.004809450947916</v>
+        <v>1.011655131361672</v>
       </c>
       <c r="G5">
-        <v>1.010381731655853</v>
+        <v>1.012277509726226</v>
       </c>
       <c r="H5">
-        <v>0.9908266462336995</v>
+        <v>0.9539395934510102</v>
       </c>
       <c r="I5">
-        <v>1.004203564215782</v>
+        <v>0.9539395934510102</v>
       </c>
       <c r="J5">
-        <v>0.9829613139624872</v>
+        <v>1.010142765317004</v>
       </c>
       <c r="K5">
-        <v>1.004809450947916</v>
+        <v>1.010142765317004</v>
       </c>
       <c r="L5">
-        <v>1.0039542369145</v>
+        <v>1.012277509726226</v>
       </c>
       <c r="M5">
-        <v>0.9934577754384935</v>
+        <v>0.9831085515886183</v>
       </c>
       <c r="N5">
-        <v>0.9934577754384935</v>
+        <v>0.9831085515886183</v>
       </c>
       <c r="O5">
-        <v>0.9925807323702288</v>
+        <v>0.9801299466426521</v>
       </c>
       <c r="P5">
-        <v>0.9972416672749679</v>
+        <v>0.992119956164747</v>
       </c>
       <c r="Q5">
-        <v>0.9972416672749679</v>
+        <v>0.992119956164747</v>
       </c>
       <c r="R5">
-        <v>0.9991336131932049</v>
+        <v>0.9966256584528113</v>
       </c>
       <c r="S5">
-        <v>0.9991336131932049</v>
+        <v>0.9966256584528113</v>
       </c>
       <c r="T5">
-        <v>0.999522823988373</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>0.9992223966330459</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.007032665266514</v>
+        <v>1.031269694637367</v>
       </c>
       <c r="D6">
-        <v>0.9750227585371251</v>
+        <v>0.913451646946391</v>
       </c>
       <c r="E6">
-        <v>1.005806326690169</v>
+        <v>1.114210522279903</v>
       </c>
       <c r="F6">
-        <v>1.007032665266514</v>
+        <v>1.038912935954604</v>
       </c>
       <c r="G6">
-        <v>1.015249953071688</v>
+        <v>1.042058328586792</v>
       </c>
       <c r="H6">
-        <v>0.9865463301562371</v>
+        <v>0.8471789878131131</v>
       </c>
       <c r="I6">
-        <v>1.006163854034794</v>
+        <v>0.8471789878131131</v>
       </c>
       <c r="J6">
-        <v>0.9750227585371251</v>
+        <v>1.031269694637367</v>
       </c>
       <c r="K6">
-        <v>1.007032665266514</v>
+        <v>1.031269694637367</v>
       </c>
       <c r="L6">
-        <v>1.005806326690169</v>
+        <v>1.042058328586792</v>
       </c>
       <c r="M6">
-        <v>0.990414542613647</v>
+        <v>0.9446186581999527</v>
       </c>
       <c r="N6">
-        <v>0.990414542613647</v>
+        <v>0.9446186581999527</v>
       </c>
       <c r="O6">
-        <v>0.9891251384611771</v>
+        <v>0.9342296544487655</v>
       </c>
       <c r="P6">
-        <v>0.9959539168312693</v>
+        <v>0.9735023370124241</v>
       </c>
       <c r="Q6">
-        <v>0.9959539168312693</v>
+        <v>0.9735023370124241</v>
       </c>
       <c r="R6">
-        <v>0.9987236039400805</v>
+        <v>0.9879441764186598</v>
       </c>
       <c r="S6">
-        <v>0.9987236039400805</v>
+        <v>0.9879441764186598</v>
       </c>
       <c r="T6">
-        <v>0.9993036479594212</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>0.9978470193696949</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.00006626645781</v>
+        <v>1.001431506435121</v>
       </c>
       <c r="D7">
-        <v>0.9996879067902126</v>
+        <v>0.9972922927093133</v>
       </c>
       <c r="E7">
-        <v>1.000084554532461</v>
+        <v>1.003050672711221</v>
       </c>
       <c r="F7">
-        <v>1.00006626645781</v>
+        <v>1.001241398102579</v>
       </c>
       <c r="G7">
-        <v>1.000228962400449</v>
+        <v>1.001163168607361</v>
       </c>
       <c r="H7">
-        <v>0.9998241175320809</v>
+        <v>0.9949639828065094</v>
       </c>
       <c r="I7">
-        <v>1.000079220222812</v>
+        <v>0.9949639828065094</v>
       </c>
       <c r="J7">
-        <v>0.9996879067902126</v>
+        <v>1.001431506435121</v>
       </c>
       <c r="K7">
-        <v>1.00006626645781</v>
+        <v>1.001431506435121</v>
       </c>
       <c r="L7">
-        <v>1.000084554532461</v>
+        <v>1.001163168607361</v>
       </c>
       <c r="M7">
-        <v>0.999886230661337</v>
+        <v>0.9980635757069352</v>
       </c>
       <c r="N7">
-        <v>0.999886230661337</v>
+        <v>0.9980635757069352</v>
       </c>
       <c r="O7">
-        <v>0.9998655262849182</v>
+        <v>0.9978064813743946</v>
       </c>
       <c r="P7">
-        <v>0.9999462425934946</v>
+        <v>0.999186219282997</v>
       </c>
       <c r="Q7">
-        <v>0.9999462425934945</v>
+        <v>0.999186219282997</v>
       </c>
       <c r="R7">
-        <v>0.9999762485595733</v>
+        <v>0.9997475410710279</v>
       </c>
       <c r="S7">
-        <v>0.9999762485595733</v>
+        <v>0.9997475410710279</v>
       </c>
       <c r="T7">
-        <v>0.9999951713226375</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>0.999857170228684</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000174689498333</v>
+        <v>1.000147603662803</v>
       </c>
       <c r="D8">
-        <v>0.9992009674736235</v>
+        <v>0.9997820084782264</v>
       </c>
       <c r="E8">
-        <v>1.000213684640225</v>
+        <v>1.000208304985065</v>
       </c>
       <c r="F8">
-        <v>1.000174689498333</v>
+        <v>1.000101653084056</v>
       </c>
       <c r="G8">
-        <v>1.000577253298253</v>
+        <v>1.000082747304931</v>
       </c>
       <c r="H8">
-        <v>0.9995515087840995</v>
+        <v>0.9995763587594434</v>
       </c>
       <c r="I8">
-        <v>1.00020231333131</v>
+        <v>0.9995763587594434</v>
       </c>
       <c r="J8">
-        <v>0.9992009674736235</v>
+        <v>1.000147603662803</v>
       </c>
       <c r="K8">
-        <v>1.000174689498333</v>
+        <v>1.000147603662803</v>
       </c>
       <c r="L8">
-        <v>1.000213684640225</v>
+        <v>1.000082747304931</v>
       </c>
       <c r="M8">
-        <v>0.9997073260569244</v>
+        <v>0.999829553032187</v>
       </c>
       <c r="N8">
-        <v>0.9997073260569244</v>
+        <v>0.999829553032187</v>
       </c>
       <c r="O8">
-        <v>0.9996553869659827</v>
+        <v>0.9998137048475334</v>
       </c>
       <c r="P8">
-        <v>0.9998631138707273</v>
+        <v>0.999935569909059</v>
       </c>
       <c r="Q8">
-        <v>0.9998631138707273</v>
+        <v>0.999935569909059</v>
       </c>
       <c r="R8">
-        <v>0.9999410077776287</v>
+        <v>0.999988578347495</v>
       </c>
       <c r="S8">
-        <v>0.9999410077776287</v>
+        <v>0.999988578347495</v>
       </c>
       <c r="T8">
-        <v>0.9999867361709741</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>0.9999831127124206</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000258078454604</v>
+        <v>1.002532795082038</v>
       </c>
       <c r="D9">
-        <v>0.9988729391563623</v>
+        <v>0.99521239472805</v>
       </c>
       <c r="E9">
-        <v>1.00029492368854</v>
+        <v>1.005392063982304</v>
       </c>
       <c r="F9">
-        <v>1.000258078454604</v>
+        <v>1.002195057495993</v>
       </c>
       <c r="G9">
-        <v>1.000793481459856</v>
+        <v>1.002056075187685</v>
       </c>
       <c r="H9">
-        <v>0.9993715909366386</v>
+        <v>0.9910946667374783</v>
       </c>
       <c r="I9">
-        <v>1.000284179355895</v>
+        <v>0.9910946667374783</v>
       </c>
       <c r="J9">
-        <v>0.9988729391563623</v>
+        <v>1.002532795082038</v>
       </c>
       <c r="K9">
-        <v>1.000258078454604</v>
+        <v>1.002532795082038</v>
       </c>
       <c r="L9">
-        <v>1.00029492368854</v>
+        <v>1.002056075187685</v>
       </c>
       <c r="M9">
-        <v>0.9995839314224513</v>
+        <v>0.9965753709625818</v>
       </c>
       <c r="N9">
-        <v>0.9995839314224513</v>
+        <v>0.9965753709625818</v>
       </c>
       <c r="O9">
-        <v>0.9995131512605138</v>
+        <v>0.9961210455510713</v>
       </c>
       <c r="P9">
-        <v>0.9998086470998354</v>
+        <v>0.9985611790024004</v>
       </c>
       <c r="Q9">
-        <v>0.9998086470998354</v>
+        <v>0.9985611790024004</v>
       </c>
       <c r="R9">
-        <v>0.9999210049385276</v>
+        <v>0.9995540830223097</v>
       </c>
       <c r="S9">
-        <v>0.9999210049385276</v>
+        <v>0.9995540830223097</v>
       </c>
       <c r="T9">
-        <v>0.9999791988419826</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>0.9997471755355914</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000539067710982</v>
+        <v>1.031601453230345</v>
       </c>
       <c r="D10">
-        <v>0.9975804993958292</v>
+        <v>0.9121680257112103</v>
       </c>
       <c r="E10">
-        <v>1.000641436222243</v>
+        <v>1.116056587779267</v>
       </c>
       <c r="F10">
-        <v>1.000539067710982</v>
+        <v>1.039483076631366</v>
       </c>
       <c r="G10">
-        <v>1.001729990745021</v>
+        <v>1.042726569019954</v>
       </c>
       <c r="H10">
-        <v>0.9986455853848238</v>
+        <v>0.8449867152491082</v>
       </c>
       <c r="I10">
-        <v>1.000611586428438</v>
+        <v>0.8449867152491082</v>
       </c>
       <c r="J10">
-        <v>0.9975804993958292</v>
+        <v>1.031601453230345</v>
       </c>
       <c r="K10">
-        <v>1.000539067710982</v>
+        <v>1.031601453230345</v>
       </c>
       <c r="L10">
-        <v>1.000641436222243</v>
+        <v>1.042726569019954</v>
       </c>
       <c r="M10">
-        <v>0.9991109678090362</v>
+        <v>0.9438566421345311</v>
       </c>
       <c r="N10">
-        <v>0.9991109678090362</v>
+        <v>0.9438566421345311</v>
       </c>
       <c r="O10">
-        <v>0.9989558403342987</v>
+        <v>0.9332937699934242</v>
       </c>
       <c r="P10">
-        <v>0.9995870011096848</v>
+        <v>0.9731049124998025</v>
       </c>
       <c r="Q10">
-        <v>0.9995870011096848</v>
+        <v>0.9731049124998025</v>
       </c>
       <c r="R10">
-        <v>0.999825017760009</v>
+        <v>0.9877290476824381</v>
       </c>
       <c r="S10">
-        <v>0.999825017760009</v>
+        <v>0.9877290476824381</v>
       </c>
       <c r="T10">
-        <v>0.9999580276478893</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>0.9978370712702084</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000928125140496</v>
+        <v>1.003844279533558</v>
       </c>
       <c r="D11">
-        <v>0.995965729753739</v>
+        <v>0.9923230711005282</v>
       </c>
       <c r="E11">
-        <v>1.001053257428353</v>
+        <v>1.008896403127487</v>
       </c>
       <c r="F11">
-        <v>1.000928125140496</v>
+        <v>1.003508288801251</v>
       </c>
       <c r="G11">
-        <v>1.00283251893652</v>
+        <v>1.003370025604371</v>
       </c>
       <c r="H11">
-        <v>0.9977521925456092</v>
+        <v>0.9858423890991684</v>
       </c>
       <c r="I11">
-        <v>1.001016770225431</v>
+        <v>0.9858423890991684</v>
       </c>
       <c r="J11">
-        <v>0.995965729753739</v>
+        <v>1.003844279533558</v>
       </c>
       <c r="K11">
-        <v>1.000928125140496</v>
+        <v>1.003844279533558</v>
       </c>
       <c r="L11">
-        <v>1.001053257428353</v>
+        <v>1.003370025604371</v>
       </c>
       <c r="M11">
-        <v>0.998509493591046</v>
+        <v>0.9946062073517696</v>
       </c>
       <c r="N11">
-        <v>0.998509493591046</v>
+        <v>0.9946062073517696</v>
       </c>
       <c r="O11">
-        <v>0.9982570599092337</v>
+        <v>0.9938451619346891</v>
       </c>
       <c r="P11">
-        <v>0.9993157041075292</v>
+        <v>0.9976855647456991</v>
       </c>
       <c r="Q11">
-        <v>0.9993157041075292</v>
+        <v>0.9976855647456992</v>
       </c>
       <c r="R11">
-        <v>0.9997188093657708</v>
+        <v>0.9992252434426641</v>
       </c>
       <c r="S11">
-        <v>0.9997188093657708</v>
+        <v>0.9992252434426641</v>
       </c>
       <c r="T11">
-        <v>0.9999247656716914</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>0.9996307428777275</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9943765283846456</v>
+        <v>1.009439571484213</v>
       </c>
       <c r="D12">
-        <v>1.034154224275527</v>
+        <v>0.9736442263157884</v>
       </c>
       <c r="E12">
-        <v>0.9898419563533701</v>
+        <v>1.034874822936844</v>
       </c>
       <c r="F12">
-        <v>0.9943765283846456</v>
+        <v>1.011845425221052</v>
       </c>
       <c r="G12">
-        <v>0.9720481585830212</v>
+        <v>1.012835493905265</v>
       </c>
       <c r="H12">
-        <v>1.01983424809223</v>
+        <v>0.9535093411789487</v>
       </c>
       <c r="I12">
-        <v>0.9911639890536954</v>
+        <v>0.9535093411789487</v>
       </c>
       <c r="J12">
-        <v>1.034154224275527</v>
+        <v>1.009439571484213</v>
       </c>
       <c r="K12">
-        <v>0.9943765283846456</v>
+        <v>1.009439571484213</v>
       </c>
       <c r="L12">
-        <v>0.9898419563533701</v>
+        <v>1.012835493905265</v>
       </c>
       <c r="M12">
-        <v>1.011998090314449</v>
+        <v>0.9831724175421066</v>
       </c>
       <c r="N12">
-        <v>1.011998090314449</v>
+        <v>0.9831724175421066</v>
       </c>
       <c r="O12">
-        <v>1.014610142907043</v>
+        <v>0.9799963538000006</v>
       </c>
       <c r="P12">
-        <v>1.006124236337848</v>
+        <v>0.9919281355228087</v>
       </c>
       <c r="Q12">
-        <v>1.006124236337848</v>
+        <v>0.9919281355228087</v>
       </c>
       <c r="R12">
-        <v>1.003187309349547</v>
+        <v>0.9963059945131596</v>
       </c>
       <c r="S12">
-        <v>1.003187309349547</v>
+        <v>0.9963059945131596</v>
       </c>
       <c r="T12">
-        <v>1.000236517457082</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>0.9993581468403517</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9961875367233075</v>
+        <v>0.9923482652341745</v>
       </c>
       <c r="D13">
-        <v>1.010270840016253</v>
+        <v>1.017322886705824</v>
       </c>
       <c r="E13">
-        <v>0.9981238196446287</v>
+        <v>0.9787462998840053</v>
       </c>
       <c r="F13">
-        <v>0.9961875367233075</v>
+        <v>0.9921377284720436</v>
       </c>
       <c r="G13">
-        <v>0.9953656638796829</v>
+        <v>0.9920510909463558</v>
       </c>
       <c r="H13">
-        <v>1.005200857483079</v>
+        <v>1.031371105654516</v>
       </c>
       <c r="I13">
-        <v>0.9975593033009118</v>
+        <v>1.031371105654516</v>
       </c>
       <c r="J13">
-        <v>1.010270840016253</v>
+        <v>0.9923482652341745</v>
       </c>
       <c r="K13">
-        <v>0.9961875367233075</v>
+        <v>0.9923482652341745</v>
       </c>
       <c r="L13">
-        <v>0.9981238196446287</v>
+        <v>0.9920510909463558</v>
       </c>
       <c r="M13">
-        <v>1.004197329830441</v>
+        <v>1.011711098300436</v>
       </c>
       <c r="N13">
-        <v>1.004197329830441</v>
+        <v>1.011711098300436</v>
       </c>
       <c r="O13">
-        <v>1.004531839047987</v>
+        <v>1.013581694435565</v>
       </c>
       <c r="P13">
-        <v>1.00152739879473</v>
+        <v>1.005256820611682</v>
       </c>
       <c r="Q13">
-        <v>1.00152739879473</v>
+        <v>1.005256820611682</v>
       </c>
       <c r="R13">
-        <v>1.000192433276874</v>
+        <v>1.002029681767305</v>
       </c>
       <c r="S13">
-        <v>1.000192433276874</v>
+        <v>1.002029681767305</v>
       </c>
       <c r="T13">
-        <v>1.00045133684131</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>1.000662896149487</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9941947451407518</v>
+        <v>1.0542662</v>
       </c>
       <c r="D14">
-        <v>1.034263898309756</v>
+        <v>0.8482630399999994</v>
       </c>
       <c r="E14">
-        <v>0.9899002973575807</v>
+        <v>1.200875300000002</v>
       </c>
       <c r="F14">
-        <v>0.9941947451407518</v>
+        <v>1.0681929</v>
       </c>
       <c r="G14">
-        <v>0.9722494560419662</v>
+        <v>1.073924099999999</v>
       </c>
       <c r="H14">
-        <v>1.019839009164142</v>
+        <v>0.7323862499999992</v>
       </c>
       <c r="I14">
-        <v>0.991152323726661</v>
+        <v>0.7323862499999992</v>
       </c>
       <c r="J14">
-        <v>1.034263898309756</v>
+        <v>1.0542662</v>
       </c>
       <c r="K14">
-        <v>0.9941947451407518</v>
+        <v>1.0542662</v>
       </c>
       <c r="L14">
-        <v>0.9899002973575807</v>
+        <v>1.073924099999999</v>
       </c>
       <c r="M14">
-        <v>1.012082097833668</v>
+        <v>0.9031551749999993</v>
       </c>
       <c r="N14">
-        <v>1.012082097833668</v>
+        <v>0.9031551749999993</v>
       </c>
       <c r="O14">
-        <v>1.014667734943826</v>
+        <v>0.8848577966666661</v>
       </c>
       <c r="P14">
-        <v>1.006119646936029</v>
+        <v>0.9535255166666664</v>
       </c>
       <c r="Q14">
-        <v>1.006119646936029</v>
+        <v>0.9535255166666664</v>
       </c>
       <c r="R14">
-        <v>1.00313842148721</v>
+        <v>0.9787106875</v>
       </c>
       <c r="S14">
-        <v>1.00313842148721</v>
+        <v>0.9787106875</v>
       </c>
       <c r="T14">
-        <v>1.000266621623476</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>0.9963179650000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9962635807468859</v>
+        <v>1.0396018</v>
       </c>
       <c r="D15">
-        <v>1.010223441416992</v>
+        <v>0.94244704</v>
       </c>
       <c r="E15">
-        <v>0.9980999993268769</v>
+        <v>1.0542662</v>
       </c>
       <c r="F15">
-        <v>0.9962635807468859</v>
+        <v>1.0268719</v>
       </c>
       <c r="G15">
-        <v>0.995283119500201</v>
+        <v>1.0216333</v>
       </c>
       <c r="H15">
-        <v>1.005197898253381</v>
+        <v>0.88779747</v>
       </c>
       <c r="I15">
-        <v>0.9975645962154627</v>
+        <v>0.88779747</v>
       </c>
       <c r="J15">
-        <v>1.010223441416992</v>
+        <v>1.0396018</v>
       </c>
       <c r="K15">
-        <v>0.9962635807468859</v>
+        <v>1.0396018</v>
       </c>
       <c r="L15">
-        <v>0.9980999993268769</v>
+        <v>1.0216333</v>
       </c>
       <c r="M15">
-        <v>1.004161720371934</v>
+        <v>0.954715385</v>
       </c>
       <c r="N15">
-        <v>1.004161720371934</v>
+        <v>0.954715385</v>
       </c>
       <c r="O15">
-        <v>1.004507112999083</v>
+        <v>0.9506259366666666</v>
       </c>
       <c r="P15">
-        <v>1.001529007163585</v>
+        <v>0.9830108566666667</v>
       </c>
       <c r="Q15">
-        <v>1.001529007163585</v>
+        <v>0.9830108566666667</v>
       </c>
       <c r="R15">
-        <v>1.00021265055941</v>
+        <v>0.9971585924999999</v>
       </c>
       <c r="S15">
-        <v>1.00021265055941</v>
+        <v>0.9971585924999999</v>
       </c>
       <c r="T15">
-        <v>1.000438772576633</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>0.9954362849999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9999531306024411</v>
+        <v>1.0216319</v>
       </c>
       <c r="D16">
-        <v>1.000013127626755</v>
+        <v>0.94305885</v>
       </c>
       <c r="E16">
-        <v>1.00002093298893</v>
+        <v>1.0739194</v>
       </c>
       <c r="F16">
-        <v>0.9999531306024411</v>
+        <v>1.0256573</v>
       </c>
       <c r="G16">
-        <v>1.000068736214387</v>
+        <v>1.0273139</v>
       </c>
       <c r="H16">
-        <v>0.9999915300693015</v>
+        <v>0.89886153</v>
       </c>
       <c r="I16">
-        <v>1.00000116320404</v>
+        <v>0.89886153</v>
       </c>
       <c r="J16">
-        <v>1.000013127626755</v>
+        <v>1.0216319</v>
       </c>
       <c r="K16">
-        <v>0.9999531306024411</v>
+        <v>1.0216319</v>
       </c>
       <c r="L16">
-        <v>1.00002093298893</v>
+        <v>1.0273139</v>
       </c>
       <c r="M16">
-        <v>1.000017030307843</v>
+        <v>0.963087715</v>
       </c>
       <c r="N16">
-        <v>1.000017030307843</v>
+        <v>0.963087715</v>
       </c>
       <c r="O16">
-        <v>1.000008530228329</v>
+        <v>0.9564114266666667</v>
       </c>
       <c r="P16">
-        <v>0.9999957304060421</v>
+        <v>0.9826024433333332</v>
       </c>
       <c r="Q16">
-        <v>0.9999957304060422</v>
+        <v>0.9826024433333332</v>
       </c>
       <c r="R16">
-        <v>0.9999850804551419</v>
+        <v>0.9923598075</v>
       </c>
       <c r="S16">
-        <v>0.9999850804551419</v>
+        <v>0.9923598075</v>
       </c>
       <c r="T16">
-        <v>1.000008103450976</v>
+        <v>0.9984071466666666</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000147603662803</v>
+        <v>0.97137849</v>
       </c>
       <c r="D17">
-        <v>0.9995763587594434</v>
+        <v>1.0442993</v>
       </c>
       <c r="E17">
-        <v>1.00008274730493</v>
+        <v>0.95608578</v>
       </c>
       <c r="F17">
-        <v>1.000147603662803</v>
+        <v>0.9794148</v>
       </c>
       <c r="G17">
-        <v>1.000208304985065</v>
+        <v>0.98272192</v>
       </c>
       <c r="H17">
-        <v>0.9997820084782264</v>
+        <v>1.0853172</v>
       </c>
       <c r="I17">
-        <v>1.000101653084056</v>
+        <v>1.0853172</v>
       </c>
       <c r="J17">
-        <v>0.9995763587594434</v>
+        <v>0.97137849</v>
       </c>
       <c r="K17">
-        <v>1.000147603662803</v>
+        <v>0.97137849</v>
       </c>
       <c r="L17">
-        <v>1.00008274730493</v>
+        <v>0.98272192</v>
       </c>
       <c r="M17">
-        <v>0.9998295530321868</v>
+        <v>1.03401956</v>
       </c>
       <c r="N17">
-        <v>0.9998295530321868</v>
+        <v>1.03401956</v>
       </c>
       <c r="O17">
-        <v>0.9998137048475333</v>
+        <v>1.03744614</v>
       </c>
       <c r="P17">
-        <v>0.9999355699090589</v>
+        <v>1.013139203333333</v>
       </c>
       <c r="Q17">
-        <v>0.9999355699090589</v>
+        <v>1.013139203333333</v>
       </c>
       <c r="R17">
-        <v>0.9999885783474949</v>
+        <v>1.002699025</v>
       </c>
       <c r="S17">
-        <v>0.9999885783474949</v>
+        <v>1.002699025</v>
       </c>
       <c r="T17">
-        <v>0.9999831127124206</v>
+        <v>1.003202915</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000279512597129</v>
+        <v>1.030740630136986</v>
       </c>
       <c r="D18">
-        <v>0.9986562749219536</v>
+        <v>0.9427469531506847</v>
       </c>
       <c r="E18">
-        <v>1.000367271803629</v>
+        <v>1.063960534246575</v>
       </c>
       <c r="F18">
-        <v>1.000279512597129</v>
+        <v>1.026273757534247</v>
       </c>
       <c r="G18">
-        <v>1.000996110040136</v>
+        <v>1.024435552054795</v>
       </c>
       <c r="H18">
-        <v>0.9992406419932862</v>
+        <v>0.8932505061643837</v>
       </c>
       <c r="I18">
-        <v>1.000341683059259</v>
+        <v>0.8932505061643837</v>
       </c>
       <c r="J18">
-        <v>0.9986562749219536</v>
+        <v>1.030740630136986</v>
       </c>
       <c r="K18">
-        <v>1.000279512597129</v>
+        <v>1.030740630136986</v>
       </c>
       <c r="L18">
-        <v>1.000367271803629</v>
+        <v>1.024435552054795</v>
       </c>
       <c r="M18">
-        <v>0.9995117733627913</v>
+        <v>0.9588430291095893</v>
       </c>
       <c r="N18">
-        <v>0.9995117733627913</v>
+        <v>0.9588430291095893</v>
       </c>
       <c r="O18">
-        <v>0.9994213962396229</v>
+        <v>0.9534776704566211</v>
       </c>
       <c r="P18">
-        <v>0.9997676864409039</v>
+        <v>0.9828088961187217</v>
       </c>
       <c r="Q18">
-        <v>0.9997676864409039</v>
+        <v>0.9828088961187217</v>
       </c>
       <c r="R18">
-        <v>0.99989564297996</v>
+        <v>0.9947918296232878</v>
       </c>
       <c r="S18">
-        <v>0.99989564297996</v>
+        <v>0.9947918296232878</v>
       </c>
       <c r="T18">
-        <v>0.9999802490692321</v>
+        <v>0.996901322214612</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.00053430293941</v>
+        <v>1.007175011052631</v>
       </c>
       <c r="D19">
-        <v>0.9969262242892121</v>
+        <v>0.974362964736842</v>
       </c>
       <c r="E19">
-        <v>1.00089853080778</v>
+        <v>1.036237553684211</v>
       </c>
       <c r="F19">
-        <v>1.00053430293941</v>
+        <v>1.011416143684211</v>
       </c>
       <c r="G19">
-        <v>1.002465442431171</v>
+        <v>1.01316148</v>
       </c>
       <c r="H19">
-        <v>0.9982251317785074</v>
+        <v>0.9559061805263157</v>
       </c>
       <c r="I19">
-        <v>1.000792336916367</v>
+        <v>0.9559061805263157</v>
       </c>
       <c r="J19">
-        <v>0.9969262242892121</v>
+        <v>1.007175011052631</v>
       </c>
       <c r="K19">
-        <v>1.00053430293941</v>
+        <v>1.007175011052631</v>
       </c>
       <c r="L19">
-        <v>1.00089853080778</v>
+        <v>1.01316148</v>
       </c>
       <c r="M19">
-        <v>0.9989123775484962</v>
+        <v>0.9845338302631577</v>
       </c>
       <c r="N19">
-        <v>0.9989123775484962</v>
+        <v>0.9845338302631577</v>
       </c>
       <c r="O19">
-        <v>0.9986832956251664</v>
+        <v>0.9811435417543858</v>
       </c>
       <c r="P19">
-        <v>0.9994530193454674</v>
+        <v>0.9920808905263155</v>
       </c>
       <c r="Q19">
-        <v>0.9994530193454674</v>
+        <v>0.9920808905263158</v>
       </c>
       <c r="R19">
-        <v>0.9997233402439529</v>
+        <v>0.9958544206578946</v>
       </c>
       <c r="S19">
-        <v>0.9997233402439529</v>
+        <v>0.9958544206578946</v>
       </c>
       <c r="T19">
-        <v>0.9999736615270747</v>
+        <v>0.9997098889473685</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.012966863157895</v>
+      </c>
+      <c r="D20">
+        <v>0.9741681268421052</v>
+      </c>
+      <c r="E20">
+        <v>1.029899100526316</v>
+      </c>
+      <c r="F20">
+        <v>1.01180661</v>
+      </c>
+      <c r="G20">
+        <v>1.011329145263158</v>
+      </c>
+      <c r="H20">
+        <v>0.952343812631579</v>
+      </c>
+      <c r="I20">
+        <v>0.952343812631579</v>
+      </c>
+      <c r="J20">
+        <v>1.012966863157895</v>
+      </c>
+      <c r="K20">
+        <v>1.012966863157895</v>
+      </c>
+      <c r="L20">
+        <v>1.011329145263158</v>
+      </c>
+      <c r="M20">
+        <v>0.9818364789473684</v>
+      </c>
+      <c r="N20">
+        <v>0.9818364789473684</v>
+      </c>
+      <c r="O20">
+        <v>0.9792803615789474</v>
+      </c>
+      <c r="P20">
+        <v>0.9922132736842105</v>
+      </c>
+      <c r="Q20">
+        <v>0.9922132736842105</v>
+      </c>
+      <c r="R20">
+        <v>0.9974016710526317</v>
+      </c>
+      <c r="S20">
+        <v>0.9974016710526317</v>
+      </c>
+      <c r="T20">
+        <v>0.9987522764035087</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9941947451407518</v>
+      </c>
+      <c r="D21">
+        <v>1.019839009164142</v>
+      </c>
+      <c r="E21">
+        <v>0.9722494560419662</v>
+      </c>
+      <c r="F21">
+        <v>0.9911523237266607</v>
+      </c>
+      <c r="G21">
+        <v>0.9899002973575807</v>
+      </c>
+      <c r="H21">
+        <v>1.034263898309756</v>
+      </c>
+      <c r="I21">
+        <v>1.034263898309756</v>
+      </c>
+      <c r="J21">
+        <v>0.9941947451407518</v>
+      </c>
+      <c r="K21">
+        <v>0.9941947451407518</v>
+      </c>
+      <c r="L21">
+        <v>0.9899002973575807</v>
+      </c>
+      <c r="M21">
+        <v>1.012082097833668</v>
+      </c>
+      <c r="N21">
+        <v>1.012082097833668</v>
+      </c>
+      <c r="O21">
+        <v>1.014667734943826</v>
+      </c>
+      <c r="P21">
+        <v>1.006119646936029</v>
+      </c>
+      <c r="Q21">
+        <v>1.00611964693603</v>
+      </c>
+      <c r="R21">
+        <v>1.00313842148721</v>
+      </c>
+      <c r="S21">
+        <v>1.00313842148721</v>
+      </c>
+      <c r="T21">
+        <v>1.000266621623476</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9962635807468857</v>
+      </c>
+      <c r="D22">
+        <v>1.005197898253381</v>
+      </c>
+      <c r="E22">
+        <v>0.995283119500201</v>
+      </c>
+      <c r="F22">
+        <v>0.9975645962154627</v>
+      </c>
+      <c r="G22">
+        <v>0.9980999993268769</v>
+      </c>
+      <c r="H22">
+        <v>1.010223441416992</v>
+      </c>
+      <c r="I22">
+        <v>1.010223441416992</v>
+      </c>
+      <c r="J22">
+        <v>0.9962635807468857</v>
+      </c>
+      <c r="K22">
+        <v>0.9962635807468857</v>
+      </c>
+      <c r="L22">
+        <v>0.9980999993268769</v>
+      </c>
+      <c r="M22">
+        <v>1.004161720371934</v>
+      </c>
+      <c r="N22">
+        <v>1.004161720371934</v>
+      </c>
+      <c r="O22">
+        <v>1.004507112999083</v>
+      </c>
+      <c r="P22">
+        <v>1.001529007163585</v>
+      </c>
+      <c r="Q22">
+        <v>1.001529007163585</v>
+      </c>
+      <c r="R22">
+        <v>1.00021265055941</v>
+      </c>
+      <c r="S22">
+        <v>1.00021265055941</v>
+      </c>
+      <c r="T22">
+        <v>1.000438772576633</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9943765283846456</v>
+      </c>
+      <c r="D23">
+        <v>1.019834248092231</v>
+      </c>
+      <c r="E23">
+        <v>0.9720481585830212</v>
+      </c>
+      <c r="F23">
+        <v>0.9911639890536953</v>
+      </c>
+      <c r="G23">
+        <v>0.9898419563533701</v>
+      </c>
+      <c r="H23">
+        <v>1.034154224275527</v>
+      </c>
+      <c r="I23">
+        <v>1.034154224275527</v>
+      </c>
+      <c r="J23">
+        <v>0.9943765283846456</v>
+      </c>
+      <c r="K23">
+        <v>0.9943765283846456</v>
+      </c>
+      <c r="L23">
+        <v>0.9898419563533701</v>
+      </c>
+      <c r="M23">
+        <v>1.011998090314449</v>
+      </c>
+      <c r="N23">
+        <v>1.011998090314449</v>
+      </c>
+      <c r="O23">
+        <v>1.014610142907043</v>
+      </c>
+      <c r="P23">
+        <v>1.006124236337848</v>
+      </c>
+      <c r="Q23">
+        <v>1.006124236337848</v>
+      </c>
+      <c r="R23">
+        <v>1.003187309349547</v>
+      </c>
+      <c r="S23">
+        <v>1.003187309349547</v>
+      </c>
+      <c r="T23">
+        <v>1.000236517457082</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9961875367233075</v>
+      </c>
+      <c r="D24">
+        <v>1.005200857483079</v>
+      </c>
+      <c r="E24">
+        <v>0.9953656638796829</v>
+      </c>
+      <c r="F24">
+        <v>0.9975593033009118</v>
+      </c>
+      <c r="G24">
+        <v>0.9981238196446287</v>
+      </c>
+      <c r="H24">
+        <v>1.010270840016253</v>
+      </c>
+      <c r="I24">
+        <v>1.010270840016253</v>
+      </c>
+      <c r="J24">
+        <v>0.9961875367233075</v>
+      </c>
+      <c r="K24">
+        <v>0.9961875367233075</v>
+      </c>
+      <c r="L24">
+        <v>0.9981238196446287</v>
+      </c>
+      <c r="M24">
+        <v>1.004197329830441</v>
+      </c>
+      <c r="N24">
+        <v>1.004197329830441</v>
+      </c>
+      <c r="O24">
+        <v>1.004531839047987</v>
+      </c>
+      <c r="P24">
+        <v>1.00152739879473</v>
+      </c>
+      <c r="Q24">
+        <v>1.00152739879473</v>
+      </c>
+      <c r="R24">
+        <v>1.000192433276874</v>
+      </c>
+      <c r="S24">
+        <v>1.000192433276874</v>
+      </c>
+      <c r="T24">
+        <v>1.000451336841311</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9945578376799356</v>
+      </c>
+      <c r="D25">
+        <v>1.019830122117639</v>
+      </c>
+      <c r="E25">
+        <v>0.9718463137276816</v>
+      </c>
+      <c r="F25">
+        <v>0.9911753558455639</v>
+      </c>
+      <c r="G25">
+        <v>0.9897833980675148</v>
+      </c>
+      <c r="H25">
+        <v>1.034045785201774</v>
+      </c>
+      <c r="I25">
+        <v>1.034045785201774</v>
+      </c>
+      <c r="J25">
+        <v>0.9945578376799356</v>
+      </c>
+      <c r="K25">
+        <v>0.9945578376799356</v>
+      </c>
+      <c r="L25">
+        <v>0.9897833980675148</v>
+      </c>
+      <c r="M25">
+        <v>1.011914591634644</v>
+      </c>
+      <c r="N25">
+        <v>1.011914591634644</v>
+      </c>
+      <c r="O25">
+        <v>1.014553101795643</v>
+      </c>
+      <c r="P25">
+        <v>1.006129006983075</v>
+      </c>
+      <c r="Q25">
+        <v>1.006129006983075</v>
+      </c>
+      <c r="R25">
+        <v>1.00323621465729</v>
+      </c>
+      <c r="S25">
+        <v>1.00323621465729</v>
+      </c>
+      <c r="T25">
+        <v>1.000206468773351</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9961114949946013</v>
+      </c>
+      <c r="D26">
+        <v>1.005203969361699</v>
+      </c>
+      <c r="E26">
+        <v>0.995447926318658</v>
+      </c>
+      <c r="F26">
+        <v>0.997553937914302</v>
+      </c>
+      <c r="G26">
+        <v>0.9981475398124822</v>
+      </c>
+      <c r="H26">
+        <v>1.010318481588344</v>
+      </c>
+      <c r="I26">
+        <v>1.010318481588344</v>
+      </c>
+      <c r="J26">
+        <v>0.9961114949946013</v>
+      </c>
+      <c r="K26">
+        <v>0.9961114949946013</v>
+      </c>
+      <c r="L26">
+        <v>0.9981475398124822</v>
+      </c>
+      <c r="M26">
+        <v>1.004233010700413</v>
+      </c>
+      <c r="N26">
+        <v>1.004233010700413</v>
+      </c>
+      <c r="O26">
+        <v>1.004556663587508</v>
+      </c>
+      <c r="P26">
+        <v>1.001525838798476</v>
+      </c>
+      <c r="Q26">
+        <v>1.001525838798476</v>
+      </c>
+      <c r="R26">
+        <v>1.000172252847507</v>
+      </c>
+      <c r="S26">
+        <v>1.000172252847507</v>
+      </c>
+      <c r="T26">
+        <v>1.000463891665014</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.004464755198621</v>
+      </c>
+      <c r="D27">
+        <v>0.9909148193909096</v>
+      </c>
+      <c r="E27">
+        <v>1.010626022463332</v>
+      </c>
+      <c r="F27">
+        <v>1.004147357255148</v>
+      </c>
+      <c r="G27">
+        <v>1.004016759305191</v>
+      </c>
+      <c r="H27">
+        <v>0.9832929658236526</v>
+      </c>
+      <c r="I27">
+        <v>0.9832929658236526</v>
+      </c>
+      <c r="J27">
+        <v>1.004464755198621</v>
+      </c>
+      <c r="K27">
+        <v>1.004464755198621</v>
+      </c>
+      <c r="L27">
+        <v>1.004016759305191</v>
+      </c>
+      <c r="M27">
+        <v>0.9936548625644219</v>
+      </c>
+      <c r="N27">
+        <v>0.9936548625644219</v>
+      </c>
+      <c r="O27">
+        <v>0.9927415148399179</v>
+      </c>
+      <c r="P27">
+        <v>0.9972581601091548</v>
+      </c>
+      <c r="Q27">
+        <v>0.9972581601091548</v>
+      </c>
+      <c r="R27">
+        <v>0.9990598088815212</v>
+      </c>
+      <c r="S27">
+        <v>0.9990598088815212</v>
+      </c>
+      <c r="T27">
+        <v>0.9995771132394756</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9995505775482583</v>
+      </c>
+      <c r="D28">
+        <v>1.001565073892895</v>
+      </c>
+      <c r="E28">
+        <v>0.9978009598983739</v>
+      </c>
+      <c r="F28">
+        <v>0.9993024690759527</v>
+      </c>
+      <c r="G28">
+        <v>0.9992003739055144</v>
+      </c>
+      <c r="H28">
+        <v>1.002698221455348</v>
+      </c>
+      <c r="I28">
+        <v>1.002698221455348</v>
+      </c>
+      <c r="J28">
+        <v>0.9995505775482583</v>
+      </c>
+      <c r="K28">
+        <v>0.9995505775482583</v>
+      </c>
+      <c r="L28">
+        <v>0.9992003739055144</v>
+      </c>
+      <c r="M28">
+        <v>1.000949297680431</v>
+      </c>
+      <c r="N28">
+        <v>1.000949297680431</v>
+      </c>
+      <c r="O28">
+        <v>1.001154556417919</v>
+      </c>
+      <c r="P28">
+        <v>1.000483057636374</v>
+      </c>
+      <c r="Q28">
+        <v>1.000483057636374</v>
+      </c>
+      <c r="R28">
+        <v>1.000249937614345</v>
+      </c>
+      <c r="S28">
+        <v>1.000249937614345</v>
+      </c>
+      <c r="T28">
+        <v>1.000019612629391</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9868824531928516</v>
+      </c>
+      <c r="D29">
+        <v>1.029269407899774</v>
+      </c>
+      <c r="E29">
+        <v>0.9643066827776656</v>
+      </c>
+      <c r="F29">
+        <v>0.9867056015831062</v>
+      </c>
+      <c r="G29">
+        <v>0.9866328340932981</v>
+      </c>
+      <c r="H29">
+        <v>1.053112088613369</v>
+      </c>
+      <c r="I29">
+        <v>1.053112088613369</v>
+      </c>
+      <c r="J29">
+        <v>0.9868824531928516</v>
+      </c>
+      <c r="K29">
+        <v>0.9868824531928516</v>
+      </c>
+      <c r="L29">
+        <v>0.9866328340932981</v>
+      </c>
+      <c r="M29">
+        <v>1.019872461353334</v>
+      </c>
+      <c r="N29">
+        <v>1.019872461353334</v>
+      </c>
+      <c r="O29">
+        <v>1.023004776868814</v>
+      </c>
+      <c r="P29">
+        <v>1.008875791966506</v>
+      </c>
+      <c r="Q29">
+        <v>1.008875791966506</v>
+      </c>
+      <c r="R29">
+        <v>1.003377457273093</v>
+      </c>
+      <c r="S29">
+        <v>1.003377457273093</v>
+      </c>
+      <c r="T29">
+        <v>1.001151511360011</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Gamma1F-HW35.xlsx
+++ b/JupyterNotebooks/AvgHW/Gamma1F-HW35.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.003206080301396</v>
+        <v>1.008350962609555</v>
       </c>
       <c r="D4">
-        <v>0.9918859624338546</v>
+        <v>0.978342714367079</v>
       </c>
       <c r="E4">
-        <v>1.01039097466171</v>
+        <v>1.027972650375153</v>
       </c>
       <c r="F4">
-        <v>1.003662675519706</v>
+        <v>1.009765174577631</v>
       </c>
       <c r="G4">
-        <v>1.003850580152841</v>
+        <v>1.010347159017558</v>
       </c>
       <c r="H4">
-        <v>0.9855183938421919</v>
+        <v>0.9614630731684746</v>
       </c>
       <c r="I4">
-        <v>0.9855183938421919</v>
+        <v>0.9614630731684746</v>
       </c>
       <c r="J4">
-        <v>1.003206080301396</v>
+        <v>1.008350962609555</v>
       </c>
       <c r="K4">
-        <v>1.003206080301396</v>
+        <v>1.008350962609555</v>
       </c>
       <c r="L4">
-        <v>1.003850580152841</v>
+        <v>1.010347159017558</v>
       </c>
       <c r="M4">
-        <v>0.9946844869975163</v>
+        <v>0.9859051160930163</v>
       </c>
       <c r="N4">
-        <v>0.9946844869975163</v>
+        <v>0.9859051160930163</v>
       </c>
       <c r="O4">
-        <v>0.9937516454762957</v>
+        <v>0.9833843155177039</v>
       </c>
       <c r="P4">
-        <v>0.9975250180988097</v>
+        <v>0.9933870649318625</v>
       </c>
       <c r="Q4">
-        <v>0.9975250180988097</v>
+        <v>0.9933870649318625</v>
       </c>
       <c r="R4">
-        <v>0.9989452836494563</v>
+        <v>0.9971280393512856</v>
       </c>
       <c r="S4">
-        <v>0.9989452836494563</v>
+        <v>0.9971280393512856</v>
       </c>
       <c r="T4">
-        <v>0.9997524444852833</v>
+        <v>0.9993736223525751</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.010142765317004</v>
+        <v>1.009010456700387</v>
       </c>
       <c r="D5">
-        <v>0.9741727367507198</v>
+        <v>0.9849619233010385</v>
       </c>
       <c r="E5">
-        <v>1.033146643191643</v>
+        <v>1.015720732324297</v>
       </c>
       <c r="F5">
-        <v>1.011655131361672</v>
+        <v>1.006950622759913</v>
       </c>
       <c r="G5">
-        <v>1.012277509726226</v>
+        <v>1.006102957354124</v>
       </c>
       <c r="H5">
-        <v>0.9539395934510102</v>
+        <v>0.9714345966805769</v>
       </c>
       <c r="I5">
-        <v>0.9539395934510102</v>
+        <v>0.9714345966805769</v>
       </c>
       <c r="J5">
-        <v>1.010142765317004</v>
+        <v>1.009010456700387</v>
       </c>
       <c r="K5">
-        <v>1.010142765317004</v>
+        <v>1.009010456700387</v>
       </c>
       <c r="L5">
-        <v>1.012277509726226</v>
+        <v>1.006102957354124</v>
       </c>
       <c r="M5">
-        <v>0.9831085515886183</v>
+        <v>0.9887687770173504</v>
       </c>
       <c r="N5">
-        <v>0.9831085515886183</v>
+        <v>0.9887687770173504</v>
       </c>
       <c r="O5">
-        <v>0.9801299466426521</v>
+        <v>0.9874998257785798</v>
       </c>
       <c r="P5">
-        <v>0.992119956164747</v>
+        <v>0.9955160035783627</v>
       </c>
       <c r="Q5">
-        <v>0.992119956164747</v>
+        <v>0.9955160035783627</v>
       </c>
       <c r="R5">
-        <v>0.9966256584528113</v>
+        <v>0.9988896168588688</v>
       </c>
       <c r="S5">
-        <v>0.9966256584528113</v>
+        <v>0.9988896168588688</v>
       </c>
       <c r="T5">
-        <v>0.9992223966330459</v>
+        <v>0.9990302148533895</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.031269694637367</v>
+        <v>1.003206080301396</v>
       </c>
       <c r="D6">
-        <v>0.913451646946391</v>
+        <v>0.9918859624338546</v>
       </c>
       <c r="E6">
-        <v>1.114210522279903</v>
+        <v>1.01039097466171</v>
       </c>
       <c r="F6">
-        <v>1.038912935954604</v>
+        <v>1.003662675519706</v>
       </c>
       <c r="G6">
-        <v>1.042058328586792</v>
+        <v>1.003850580152841</v>
       </c>
       <c r="H6">
-        <v>0.8471789878131131</v>
+        <v>0.9855183938421919</v>
       </c>
       <c r="I6">
-        <v>0.8471789878131131</v>
+        <v>0.9855183938421919</v>
       </c>
       <c r="J6">
-        <v>1.031269694637367</v>
+        <v>1.003206080301396</v>
       </c>
       <c r="K6">
-        <v>1.031269694637367</v>
+        <v>1.003206080301396</v>
       </c>
       <c r="L6">
-        <v>1.042058328586792</v>
+        <v>1.003850580152841</v>
       </c>
       <c r="M6">
-        <v>0.9446186581999527</v>
+        <v>0.9946844869975163</v>
       </c>
       <c r="N6">
-        <v>0.9446186581999527</v>
+        <v>0.9946844869975163</v>
       </c>
       <c r="O6">
-        <v>0.9342296544487655</v>
+        <v>0.9937516454762957</v>
       </c>
       <c r="P6">
-        <v>0.9735023370124241</v>
+        <v>0.9975250180988097</v>
       </c>
       <c r="Q6">
-        <v>0.9735023370124241</v>
+        <v>0.9975250180988097</v>
       </c>
       <c r="R6">
-        <v>0.9879441764186598</v>
+        <v>0.9989452836494563</v>
       </c>
       <c r="S6">
-        <v>0.9879441764186598</v>
+        <v>0.9989452836494563</v>
       </c>
       <c r="T6">
-        <v>0.9978470193696949</v>
+        <v>0.9997524444852833</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.001431506435121</v>
+        <v>1.010142765317004</v>
       </c>
       <c r="D7">
-        <v>0.9972922927093133</v>
+        <v>0.9741727367507198</v>
       </c>
       <c r="E7">
-        <v>1.003050672711221</v>
+        <v>1.033146643191643</v>
       </c>
       <c r="F7">
-        <v>1.001241398102579</v>
+        <v>1.011655131361672</v>
       </c>
       <c r="G7">
-        <v>1.001163168607361</v>
+        <v>1.012277509726226</v>
       </c>
       <c r="H7">
-        <v>0.9949639828065094</v>
+        <v>0.9539395934510102</v>
       </c>
       <c r="I7">
-        <v>0.9949639828065094</v>
+        <v>0.9539395934510102</v>
       </c>
       <c r="J7">
-        <v>1.001431506435121</v>
+        <v>1.010142765317004</v>
       </c>
       <c r="K7">
-        <v>1.001431506435121</v>
+        <v>1.010142765317004</v>
       </c>
       <c r="L7">
-        <v>1.001163168607361</v>
+        <v>1.012277509726226</v>
       </c>
       <c r="M7">
-        <v>0.9980635757069352</v>
+        <v>0.9831085515886183</v>
       </c>
       <c r="N7">
-        <v>0.9980635757069352</v>
+        <v>0.9831085515886183</v>
       </c>
       <c r="O7">
-        <v>0.9978064813743946</v>
+        <v>0.9801299466426521</v>
       </c>
       <c r="P7">
-        <v>0.999186219282997</v>
+        <v>0.992119956164747</v>
       </c>
       <c r="Q7">
-        <v>0.999186219282997</v>
+        <v>0.992119956164747</v>
       </c>
       <c r="R7">
-        <v>0.9997475410710279</v>
+        <v>0.9966256584528113</v>
       </c>
       <c r="S7">
-        <v>0.9997475410710279</v>
+        <v>0.9966256584528113</v>
       </c>
       <c r="T7">
-        <v>0.999857170228684</v>
+        <v>0.9992223966330459</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000147603662803</v>
+        <v>1.031269694637367</v>
       </c>
       <c r="D8">
-        <v>0.9997820084782264</v>
+        <v>0.913451646946391</v>
       </c>
       <c r="E8">
-        <v>1.000208304985065</v>
+        <v>1.114210522279903</v>
       </c>
       <c r="F8">
-        <v>1.000101653084056</v>
+        <v>1.038912935954604</v>
       </c>
       <c r="G8">
-        <v>1.000082747304931</v>
+        <v>1.042058328586792</v>
       </c>
       <c r="H8">
-        <v>0.9995763587594434</v>
+        <v>0.8471789878131131</v>
       </c>
       <c r="I8">
-        <v>0.9995763587594434</v>
+        <v>0.8471789878131131</v>
       </c>
       <c r="J8">
-        <v>1.000147603662803</v>
+        <v>1.031269694637367</v>
       </c>
       <c r="K8">
-        <v>1.000147603662803</v>
+        <v>1.031269694637367</v>
       </c>
       <c r="L8">
-        <v>1.000082747304931</v>
+        <v>1.042058328586792</v>
       </c>
       <c r="M8">
-        <v>0.999829553032187</v>
+        <v>0.9446186581999527</v>
       </c>
       <c r="N8">
-        <v>0.999829553032187</v>
+        <v>0.9446186581999527</v>
       </c>
       <c r="O8">
-        <v>0.9998137048475334</v>
+        <v>0.9342296544487655</v>
       </c>
       <c r="P8">
-        <v>0.999935569909059</v>
+        <v>0.9735023370124241</v>
       </c>
       <c r="Q8">
-        <v>0.999935569909059</v>
+        <v>0.9735023370124241</v>
       </c>
       <c r="R8">
-        <v>0.999988578347495</v>
+        <v>0.9879441764186598</v>
       </c>
       <c r="S8">
-        <v>0.999988578347495</v>
+        <v>0.9879441764186598</v>
       </c>
       <c r="T8">
-        <v>0.9999831127124206</v>
+        <v>0.9978470193696949</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.002532795082038</v>
+        <v>1.001431506435121</v>
       </c>
       <c r="D9">
-        <v>0.99521239472805</v>
+        <v>0.9972922927093133</v>
       </c>
       <c r="E9">
-        <v>1.005392063982304</v>
+        <v>1.003050672711221</v>
       </c>
       <c r="F9">
-        <v>1.002195057495993</v>
+        <v>1.001241398102579</v>
       </c>
       <c r="G9">
-        <v>1.002056075187685</v>
+        <v>1.001163168607361</v>
       </c>
       <c r="H9">
-        <v>0.9910946667374783</v>
+        <v>0.9949639828065094</v>
       </c>
       <c r="I9">
-        <v>0.9910946667374783</v>
+        <v>0.9949639828065094</v>
       </c>
       <c r="J9">
-        <v>1.002532795082038</v>
+        <v>1.001431506435121</v>
       </c>
       <c r="K9">
-        <v>1.002532795082038</v>
+        <v>1.001431506435121</v>
       </c>
       <c r="L9">
-        <v>1.002056075187685</v>
+        <v>1.001163168607361</v>
       </c>
       <c r="M9">
-        <v>0.9965753709625818</v>
+        <v>0.9980635757069352</v>
       </c>
       <c r="N9">
-        <v>0.9965753709625818</v>
+        <v>0.9980635757069352</v>
       </c>
       <c r="O9">
-        <v>0.9961210455510713</v>
+        <v>0.9978064813743946</v>
       </c>
       <c r="P9">
-        <v>0.9985611790024004</v>
+        <v>0.999186219282997</v>
       </c>
       <c r="Q9">
-        <v>0.9985611790024004</v>
+        <v>0.999186219282997</v>
       </c>
       <c r="R9">
-        <v>0.9995540830223097</v>
+        <v>0.9997475410710279</v>
       </c>
       <c r="S9">
-        <v>0.9995540830223097</v>
+        <v>0.9997475410710279</v>
       </c>
       <c r="T9">
-        <v>0.9997471755355914</v>
+        <v>0.999857170228684</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.031601453230345</v>
+        <v>1.000147603662803</v>
       </c>
       <c r="D10">
-        <v>0.9121680257112103</v>
+        <v>0.9997820084782264</v>
       </c>
       <c r="E10">
-        <v>1.116056587779267</v>
+        <v>1.000208304985065</v>
       </c>
       <c r="F10">
-        <v>1.039483076631366</v>
+        <v>1.000101653084056</v>
       </c>
       <c r="G10">
-        <v>1.042726569019954</v>
+        <v>1.000082747304931</v>
       </c>
       <c r="H10">
-        <v>0.8449867152491082</v>
+        <v>0.9995763587594434</v>
       </c>
       <c r="I10">
-        <v>0.8449867152491082</v>
+        <v>0.9995763587594434</v>
       </c>
       <c r="J10">
-        <v>1.031601453230345</v>
+        <v>1.000147603662803</v>
       </c>
       <c r="K10">
-        <v>1.031601453230345</v>
+        <v>1.000147603662803</v>
       </c>
       <c r="L10">
-        <v>1.042726569019954</v>
+        <v>1.000082747304931</v>
       </c>
       <c r="M10">
-        <v>0.9438566421345311</v>
+        <v>0.999829553032187</v>
       </c>
       <c r="N10">
-        <v>0.9438566421345311</v>
+        <v>0.999829553032187</v>
       </c>
       <c r="O10">
-        <v>0.9332937699934242</v>
+        <v>0.9998137048475334</v>
       </c>
       <c r="P10">
-        <v>0.9731049124998025</v>
+        <v>0.999935569909059</v>
       </c>
       <c r="Q10">
-        <v>0.9731049124998025</v>
+        <v>0.999935569909059</v>
       </c>
       <c r="R10">
-        <v>0.9877290476824381</v>
+        <v>0.999988578347495</v>
       </c>
       <c r="S10">
-        <v>0.9877290476824381</v>
+        <v>0.999988578347495</v>
       </c>
       <c r="T10">
-        <v>0.9978370712702084</v>
+        <v>0.9999831127124206</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.003844279533558</v>
+        <v>1.002532795082038</v>
       </c>
       <c r="D11">
-        <v>0.9923230711005282</v>
+        <v>0.99521239472805</v>
       </c>
       <c r="E11">
-        <v>1.008896403127487</v>
+        <v>1.005392063982304</v>
       </c>
       <c r="F11">
-        <v>1.003508288801251</v>
+        <v>1.002195057495993</v>
       </c>
       <c r="G11">
-        <v>1.003370025604371</v>
+        <v>1.002056075187685</v>
       </c>
       <c r="H11">
-        <v>0.9858423890991684</v>
+        <v>0.9910946667374783</v>
       </c>
       <c r="I11">
-        <v>0.9858423890991684</v>
+        <v>0.9910946667374783</v>
       </c>
       <c r="J11">
-        <v>1.003844279533558</v>
+        <v>1.002532795082038</v>
       </c>
       <c r="K11">
-        <v>1.003844279533558</v>
+        <v>1.002532795082038</v>
       </c>
       <c r="L11">
-        <v>1.003370025604371</v>
+        <v>1.002056075187685</v>
       </c>
       <c r="M11">
-        <v>0.9946062073517696</v>
+        <v>0.9965753709625818</v>
       </c>
       <c r="N11">
-        <v>0.9946062073517696</v>
+        <v>0.9965753709625818</v>
       </c>
       <c r="O11">
-        <v>0.9938451619346891</v>
+        <v>0.9961210455510713</v>
       </c>
       <c r="P11">
-        <v>0.9976855647456991</v>
+        <v>0.9985611790024004</v>
       </c>
       <c r="Q11">
-        <v>0.9976855647456992</v>
+        <v>0.9985611790024004</v>
       </c>
       <c r="R11">
-        <v>0.9992252434426641</v>
+        <v>0.9995540830223097</v>
       </c>
       <c r="S11">
-        <v>0.9992252434426641</v>
+        <v>0.9995540830223097</v>
       </c>
       <c r="T11">
-        <v>0.9996307428777275</v>
+        <v>0.9997471755355914</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.009439571484213</v>
+        <v>1.031601453230345</v>
       </c>
       <c r="D12">
-        <v>0.9736442263157884</v>
+        <v>0.9121680257112103</v>
       </c>
       <c r="E12">
-        <v>1.034874822936844</v>
+        <v>1.116056587779267</v>
       </c>
       <c r="F12">
-        <v>1.011845425221052</v>
+        <v>1.039483076631366</v>
       </c>
       <c r="G12">
-        <v>1.012835493905265</v>
+        <v>1.042726569019954</v>
       </c>
       <c r="H12">
-        <v>0.9535093411789487</v>
+        <v>0.8449867152491082</v>
       </c>
       <c r="I12">
-        <v>0.9535093411789487</v>
+        <v>0.8449867152491082</v>
       </c>
       <c r="J12">
-        <v>1.009439571484213</v>
+        <v>1.031601453230345</v>
       </c>
       <c r="K12">
-        <v>1.009439571484213</v>
+        <v>1.031601453230345</v>
       </c>
       <c r="L12">
-        <v>1.012835493905265</v>
+        <v>1.042726569019954</v>
       </c>
       <c r="M12">
-        <v>0.9831724175421066</v>
+        <v>0.9438566421345311</v>
       </c>
       <c r="N12">
-        <v>0.9831724175421066</v>
+        <v>0.9438566421345311</v>
       </c>
       <c r="O12">
-        <v>0.9799963538000006</v>
+        <v>0.9332937699934242</v>
       </c>
       <c r="P12">
-        <v>0.9919281355228087</v>
+        <v>0.9731049124998025</v>
       </c>
       <c r="Q12">
-        <v>0.9919281355228087</v>
+        <v>0.9731049124998025</v>
       </c>
       <c r="R12">
-        <v>0.9963059945131596</v>
+        <v>0.9877290476824381</v>
       </c>
       <c r="S12">
-        <v>0.9963059945131596</v>
+        <v>0.9877290476824381</v>
       </c>
       <c r="T12">
-        <v>0.9993581468403517</v>
+        <v>0.9978370712702084</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9923482652341745</v>
+        <v>1.003844279533558</v>
       </c>
       <c r="D13">
-        <v>1.017322886705824</v>
+        <v>0.9923230711005282</v>
       </c>
       <c r="E13">
-        <v>0.9787462998840053</v>
+        <v>1.008896403127487</v>
       </c>
       <c r="F13">
-        <v>0.9921377284720436</v>
+        <v>1.003508288801251</v>
       </c>
       <c r="G13">
-        <v>0.9920510909463558</v>
+        <v>1.003370025604371</v>
       </c>
       <c r="H13">
-        <v>1.031371105654516</v>
+        <v>0.9858423890991684</v>
       </c>
       <c r="I13">
-        <v>1.031371105654516</v>
+        <v>0.9858423890991684</v>
       </c>
       <c r="J13">
-        <v>0.9923482652341745</v>
+        <v>1.003844279533558</v>
       </c>
       <c r="K13">
-        <v>0.9923482652341745</v>
+        <v>1.003844279533558</v>
       </c>
       <c r="L13">
-        <v>0.9920510909463558</v>
+        <v>1.003370025604371</v>
       </c>
       <c r="M13">
-        <v>1.011711098300436</v>
+        <v>0.9946062073517696</v>
       </c>
       <c r="N13">
-        <v>1.011711098300436</v>
+        <v>0.9946062073517696</v>
       </c>
       <c r="O13">
-        <v>1.013581694435565</v>
+        <v>0.9938451619346891</v>
       </c>
       <c r="P13">
-        <v>1.005256820611682</v>
+        <v>0.9976855647456991</v>
       </c>
       <c r="Q13">
-        <v>1.005256820611682</v>
+        <v>0.9976855647456992</v>
       </c>
       <c r="R13">
-        <v>1.002029681767305</v>
+        <v>0.9992252434426641</v>
       </c>
       <c r="S13">
-        <v>1.002029681767305</v>
+        <v>0.9992252434426641</v>
       </c>
       <c r="T13">
-        <v>1.000662896149487</v>
+        <v>0.9996307428777275</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.0542662</v>
+        <v>1.009439571484213</v>
       </c>
       <c r="D14">
-        <v>0.8482630399999994</v>
+        <v>0.9736442263157884</v>
       </c>
       <c r="E14">
-        <v>1.200875300000002</v>
+        <v>1.034874822936844</v>
       </c>
       <c r="F14">
-        <v>1.0681929</v>
+        <v>1.011845425221052</v>
       </c>
       <c r="G14">
-        <v>1.073924099999999</v>
+        <v>1.012835493905265</v>
       </c>
       <c r="H14">
-        <v>0.7323862499999992</v>
+        <v>0.9535093411789487</v>
       </c>
       <c r="I14">
-        <v>0.7323862499999992</v>
+        <v>0.9535093411789487</v>
       </c>
       <c r="J14">
-        <v>1.0542662</v>
+        <v>1.009439571484213</v>
       </c>
       <c r="K14">
-        <v>1.0542662</v>
+        <v>1.009439571484213</v>
       </c>
       <c r="L14">
-        <v>1.073924099999999</v>
+        <v>1.012835493905265</v>
       </c>
       <c r="M14">
-        <v>0.9031551749999993</v>
+        <v>0.9831724175421066</v>
       </c>
       <c r="N14">
-        <v>0.9031551749999993</v>
+        <v>0.9831724175421066</v>
       </c>
       <c r="O14">
-        <v>0.8848577966666661</v>
+        <v>0.9799963538000006</v>
       </c>
       <c r="P14">
-        <v>0.9535255166666664</v>
+        <v>0.9919281355228087</v>
       </c>
       <c r="Q14">
-        <v>0.9535255166666664</v>
+        <v>0.9919281355228087</v>
       </c>
       <c r="R14">
-        <v>0.9787106875</v>
+        <v>0.9963059945131596</v>
       </c>
       <c r="S14">
-        <v>0.9787106875</v>
+        <v>0.9963059945131596</v>
       </c>
       <c r="T14">
-        <v>0.9963179650000001</v>
+        <v>0.9993581468403517</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.0396018</v>
+        <v>0.9923482652341745</v>
       </c>
       <c r="D15">
-        <v>0.94244704</v>
+        <v>1.017322886705824</v>
       </c>
       <c r="E15">
-        <v>1.0542662</v>
+        <v>0.9787462998840053</v>
       </c>
       <c r="F15">
-        <v>1.0268719</v>
+        <v>0.9921377284720436</v>
       </c>
       <c r="G15">
-        <v>1.0216333</v>
+        <v>0.9920510909463558</v>
       </c>
       <c r="H15">
-        <v>0.88779747</v>
+        <v>1.031371105654516</v>
       </c>
       <c r="I15">
-        <v>0.88779747</v>
+        <v>1.031371105654516</v>
       </c>
       <c r="J15">
-        <v>1.0396018</v>
+        <v>0.9923482652341745</v>
       </c>
       <c r="K15">
-        <v>1.0396018</v>
+        <v>0.9923482652341745</v>
       </c>
       <c r="L15">
-        <v>1.0216333</v>
+        <v>0.9920510909463558</v>
       </c>
       <c r="M15">
-        <v>0.954715385</v>
+        <v>1.011711098300436</v>
       </c>
       <c r="N15">
-        <v>0.954715385</v>
+        <v>1.011711098300436</v>
       </c>
       <c r="O15">
-        <v>0.9506259366666666</v>
+        <v>1.013581694435565</v>
       </c>
       <c r="P15">
-        <v>0.9830108566666667</v>
+        <v>1.005256820611682</v>
       </c>
       <c r="Q15">
-        <v>0.9830108566666667</v>
+        <v>1.005256820611682</v>
       </c>
       <c r="R15">
-        <v>0.9971585924999999</v>
+        <v>1.002029681767305</v>
       </c>
       <c r="S15">
-        <v>0.9971585924999999</v>
+        <v>1.002029681767305</v>
       </c>
       <c r="T15">
-        <v>0.9954362849999999</v>
+        <v>1.000662896149487</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.0216319</v>
+        <v>1.0542662</v>
       </c>
       <c r="D16">
-        <v>0.94305885</v>
+        <v>0.8482630399999994</v>
       </c>
       <c r="E16">
-        <v>1.0739194</v>
+        <v>1.200875300000002</v>
       </c>
       <c r="F16">
-        <v>1.0256573</v>
+        <v>1.0681929</v>
       </c>
       <c r="G16">
-        <v>1.0273139</v>
+        <v>1.073924099999999</v>
       </c>
       <c r="H16">
-        <v>0.89886153</v>
+        <v>0.7323862499999992</v>
       </c>
       <c r="I16">
-        <v>0.89886153</v>
+        <v>0.7323862499999992</v>
       </c>
       <c r="J16">
-        <v>1.0216319</v>
+        <v>1.0542662</v>
       </c>
       <c r="K16">
-        <v>1.0216319</v>
+        <v>1.0542662</v>
       </c>
       <c r="L16">
-        <v>1.0273139</v>
+        <v>1.073924099999999</v>
       </c>
       <c r="M16">
-        <v>0.963087715</v>
+        <v>0.9031551749999993</v>
       </c>
       <c r="N16">
-        <v>0.963087715</v>
+        <v>0.9031551749999993</v>
       </c>
       <c r="O16">
-        <v>0.9564114266666667</v>
+        <v>0.8848577966666661</v>
       </c>
       <c r="P16">
-        <v>0.9826024433333332</v>
+        <v>0.9535255166666664</v>
       </c>
       <c r="Q16">
-        <v>0.9826024433333332</v>
+        <v>0.9535255166666664</v>
       </c>
       <c r="R16">
-        <v>0.9923598075</v>
+        <v>0.9787106875</v>
       </c>
       <c r="S16">
-        <v>0.9923598075</v>
+        <v>0.9787106875</v>
       </c>
       <c r="T16">
-        <v>0.9984071466666666</v>
+        <v>0.9963179650000001</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.97137849</v>
+        <v>1.0396018</v>
       </c>
       <c r="D17">
-        <v>1.0442993</v>
+        <v>0.94244704</v>
       </c>
       <c r="E17">
-        <v>0.95608578</v>
+        <v>1.0542662</v>
       </c>
       <c r="F17">
-        <v>0.9794148</v>
+        <v>1.0268719</v>
       </c>
       <c r="G17">
-        <v>0.98272192</v>
+        <v>1.0216333</v>
       </c>
       <c r="H17">
-        <v>1.0853172</v>
+        <v>0.88779747</v>
       </c>
       <c r="I17">
-        <v>1.0853172</v>
+        <v>0.88779747</v>
       </c>
       <c r="J17">
-        <v>0.97137849</v>
+        <v>1.0396018</v>
       </c>
       <c r="K17">
-        <v>0.97137849</v>
+        <v>1.0396018</v>
       </c>
       <c r="L17">
-        <v>0.98272192</v>
+        <v>1.0216333</v>
       </c>
       <c r="M17">
-        <v>1.03401956</v>
+        <v>0.954715385</v>
       </c>
       <c r="N17">
-        <v>1.03401956</v>
+        <v>0.954715385</v>
       </c>
       <c r="O17">
-        <v>1.03744614</v>
+        <v>0.9506259366666666</v>
       </c>
       <c r="P17">
-        <v>1.013139203333333</v>
+        <v>0.9830108566666667</v>
       </c>
       <c r="Q17">
-        <v>1.013139203333333</v>
+        <v>0.9830108566666667</v>
       </c>
       <c r="R17">
-        <v>1.002699025</v>
+        <v>0.9971585924999999</v>
       </c>
       <c r="S17">
-        <v>1.002699025</v>
+        <v>0.9971585924999999</v>
       </c>
       <c r="T17">
-        <v>1.003202915</v>
+        <v>0.9954362849999999</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.030740630136986</v>
+        <v>1.0216319</v>
       </c>
       <c r="D18">
-        <v>0.9427469531506847</v>
+        <v>0.94305885</v>
       </c>
       <c r="E18">
-        <v>1.063960534246575</v>
+        <v>1.0739194</v>
       </c>
       <c r="F18">
-        <v>1.026273757534247</v>
+        <v>1.0256573</v>
       </c>
       <c r="G18">
-        <v>1.024435552054795</v>
+        <v>1.0273139</v>
       </c>
       <c r="H18">
-        <v>0.8932505061643837</v>
+        <v>0.89886153</v>
       </c>
       <c r="I18">
-        <v>0.8932505061643837</v>
+        <v>0.89886153</v>
       </c>
       <c r="J18">
-        <v>1.030740630136986</v>
+        <v>1.0216319</v>
       </c>
       <c r="K18">
-        <v>1.030740630136986</v>
+        <v>1.0216319</v>
       </c>
       <c r="L18">
-        <v>1.024435552054795</v>
+        <v>1.0273139</v>
       </c>
       <c r="M18">
-        <v>0.9588430291095893</v>
+        <v>0.963087715</v>
       </c>
       <c r="N18">
-        <v>0.9588430291095893</v>
+        <v>0.963087715</v>
       </c>
       <c r="O18">
-        <v>0.9534776704566211</v>
+        <v>0.9564114266666667</v>
       </c>
       <c r="P18">
-        <v>0.9828088961187217</v>
+        <v>0.9826024433333332</v>
       </c>
       <c r="Q18">
-        <v>0.9828088961187217</v>
+        <v>0.9826024433333332</v>
       </c>
       <c r="R18">
-        <v>0.9947918296232878</v>
+        <v>0.9923598075</v>
       </c>
       <c r="S18">
-        <v>0.9947918296232878</v>
+        <v>0.9923598075</v>
       </c>
       <c r="T18">
-        <v>0.996901322214612</v>
+        <v>0.9984071466666666</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.007175011052631</v>
+        <v>0.97137849</v>
       </c>
       <c r="D19">
-        <v>0.974362964736842</v>
+        <v>1.0442993</v>
       </c>
       <c r="E19">
-        <v>1.036237553684211</v>
+        <v>0.95608578</v>
       </c>
       <c r="F19">
-        <v>1.011416143684211</v>
+        <v>0.9794148</v>
       </c>
       <c r="G19">
-        <v>1.01316148</v>
+        <v>0.98272192</v>
       </c>
       <c r="H19">
-        <v>0.9559061805263157</v>
+        <v>1.0853172</v>
       </c>
       <c r="I19">
-        <v>0.9559061805263157</v>
+        <v>1.0853172</v>
       </c>
       <c r="J19">
-        <v>1.007175011052631</v>
+        <v>0.97137849</v>
       </c>
       <c r="K19">
-        <v>1.007175011052631</v>
+        <v>0.97137849</v>
       </c>
       <c r="L19">
-        <v>1.01316148</v>
+        <v>0.98272192</v>
       </c>
       <c r="M19">
-        <v>0.9845338302631577</v>
+        <v>1.03401956</v>
       </c>
       <c r="N19">
-        <v>0.9845338302631577</v>
+        <v>1.03401956</v>
       </c>
       <c r="O19">
-        <v>0.9811435417543858</v>
+        <v>1.03744614</v>
       </c>
       <c r="P19">
-        <v>0.9920808905263155</v>
+        <v>1.013139203333333</v>
       </c>
       <c r="Q19">
-        <v>0.9920808905263158</v>
+        <v>1.013139203333333</v>
       </c>
       <c r="R19">
-        <v>0.9958544206578946</v>
+        <v>1.002699025</v>
       </c>
       <c r="S19">
-        <v>0.9958544206578946</v>
+        <v>1.002699025</v>
       </c>
       <c r="T19">
-        <v>0.9997098889473685</v>
+        <v>1.003202915</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.012966863157895</v>
+        <v>1.030740630136986</v>
       </c>
       <c r="D20">
-        <v>0.9741681268421052</v>
+        <v>0.9427469531506847</v>
       </c>
       <c r="E20">
-        <v>1.029899100526316</v>
+        <v>1.063960534246575</v>
       </c>
       <c r="F20">
-        <v>1.01180661</v>
+        <v>1.026273757534247</v>
       </c>
       <c r="G20">
-        <v>1.011329145263158</v>
+        <v>1.024435552054795</v>
       </c>
       <c r="H20">
-        <v>0.952343812631579</v>
+        <v>0.8932505061643837</v>
       </c>
       <c r="I20">
-        <v>0.952343812631579</v>
+        <v>0.8932505061643837</v>
       </c>
       <c r="J20">
-        <v>1.012966863157895</v>
+        <v>1.030740630136986</v>
       </c>
       <c r="K20">
-        <v>1.012966863157895</v>
+        <v>1.030740630136986</v>
       </c>
       <c r="L20">
-        <v>1.011329145263158</v>
+        <v>1.024435552054795</v>
       </c>
       <c r="M20">
-        <v>0.9818364789473684</v>
+        <v>0.9588430291095893</v>
       </c>
       <c r="N20">
-        <v>0.9818364789473684</v>
+        <v>0.9588430291095893</v>
       </c>
       <c r="O20">
-        <v>0.9792803615789474</v>
+        <v>0.9534776704566211</v>
       </c>
       <c r="P20">
-        <v>0.9922132736842105</v>
+        <v>0.9828088961187217</v>
       </c>
       <c r="Q20">
-        <v>0.9922132736842105</v>
+        <v>0.9828088961187217</v>
       </c>
       <c r="R20">
-        <v>0.9974016710526317</v>
+        <v>0.9947918296232878</v>
       </c>
       <c r="S20">
-        <v>0.9974016710526317</v>
+        <v>0.9947918296232878</v>
       </c>
       <c r="T20">
-        <v>0.9987522764035087</v>
+        <v>0.996901322214612</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9941947451407518</v>
+        <v>1.007175011052631</v>
       </c>
       <c r="D21">
-        <v>1.019839009164142</v>
+        <v>0.974362964736842</v>
       </c>
       <c r="E21">
-        <v>0.9722494560419662</v>
+        <v>1.036237553684211</v>
       </c>
       <c r="F21">
-        <v>0.9911523237266607</v>
+        <v>1.011416143684211</v>
       </c>
       <c r="G21">
-        <v>0.9899002973575807</v>
+        <v>1.01316148</v>
       </c>
       <c r="H21">
-        <v>1.034263898309756</v>
+        <v>0.9559061805263157</v>
       </c>
       <c r="I21">
-        <v>1.034263898309756</v>
+        <v>0.9559061805263157</v>
       </c>
       <c r="J21">
-        <v>0.9941947451407518</v>
+        <v>1.007175011052631</v>
       </c>
       <c r="K21">
-        <v>0.9941947451407518</v>
+        <v>1.007175011052631</v>
       </c>
       <c r="L21">
-        <v>0.9899002973575807</v>
+        <v>1.01316148</v>
       </c>
       <c r="M21">
-        <v>1.012082097833668</v>
+        <v>0.9845338302631577</v>
       </c>
       <c r="N21">
-        <v>1.012082097833668</v>
+        <v>0.9845338302631577</v>
       </c>
       <c r="O21">
-        <v>1.014667734943826</v>
+        <v>0.9811435417543858</v>
       </c>
       <c r="P21">
-        <v>1.006119646936029</v>
+        <v>0.9920808905263155</v>
       </c>
       <c r="Q21">
-        <v>1.00611964693603</v>
+        <v>0.9920808905263158</v>
       </c>
       <c r="R21">
-        <v>1.00313842148721</v>
+        <v>0.9958544206578946</v>
       </c>
       <c r="S21">
-        <v>1.00313842148721</v>
+        <v>0.9958544206578946</v>
       </c>
       <c r="T21">
-        <v>1.000266621623476</v>
+        <v>0.9997098889473685</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9962635807468857</v>
+        <v>1.012966863157895</v>
       </c>
       <c r="D22">
-        <v>1.005197898253381</v>
+        <v>0.9741681268421052</v>
       </c>
       <c r="E22">
-        <v>0.995283119500201</v>
+        <v>1.029899100526316</v>
       </c>
       <c r="F22">
-        <v>0.9975645962154627</v>
+        <v>1.01180661</v>
       </c>
       <c r="G22">
-        <v>0.9980999993268769</v>
+        <v>1.011329145263158</v>
       </c>
       <c r="H22">
-        <v>1.010223441416992</v>
+        <v>0.952343812631579</v>
       </c>
       <c r="I22">
-        <v>1.010223441416992</v>
+        <v>0.952343812631579</v>
       </c>
       <c r="J22">
-        <v>0.9962635807468857</v>
+        <v>1.012966863157895</v>
       </c>
       <c r="K22">
-        <v>0.9962635807468857</v>
+        <v>1.012966863157895</v>
       </c>
       <c r="L22">
-        <v>0.9980999993268769</v>
+        <v>1.011329145263158</v>
       </c>
       <c r="M22">
-        <v>1.004161720371934</v>
+        <v>0.9818364789473684</v>
       </c>
       <c r="N22">
-        <v>1.004161720371934</v>
+        <v>0.9818364789473684</v>
       </c>
       <c r="O22">
-        <v>1.004507112999083</v>
+        <v>0.9792803615789474</v>
       </c>
       <c r="P22">
-        <v>1.001529007163585</v>
+        <v>0.9922132736842105</v>
       </c>
       <c r="Q22">
-        <v>1.001529007163585</v>
+        <v>0.9922132736842105</v>
       </c>
       <c r="R22">
-        <v>1.00021265055941</v>
+        <v>0.9974016710526317</v>
       </c>
       <c r="S22">
-        <v>1.00021265055941</v>
+        <v>0.9974016710526317</v>
       </c>
       <c r="T22">
-        <v>1.000438772576633</v>
+        <v>0.9987522764035087</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9943765283846456</v>
+        <v>0.9941947451407518</v>
       </c>
       <c r="D23">
-        <v>1.019834248092231</v>
+        <v>1.019839009164142</v>
       </c>
       <c r="E23">
-        <v>0.9720481585830212</v>
+        <v>0.9722494560419662</v>
       </c>
       <c r="F23">
-        <v>0.9911639890536953</v>
+        <v>0.9911523237266607</v>
       </c>
       <c r="G23">
-        <v>0.9898419563533701</v>
+        <v>0.9899002973575807</v>
       </c>
       <c r="H23">
-        <v>1.034154224275527</v>
+        <v>1.034263898309756</v>
       </c>
       <c r="I23">
-        <v>1.034154224275527</v>
+        <v>1.034263898309756</v>
       </c>
       <c r="J23">
-        <v>0.9943765283846456</v>
+        <v>0.9941947451407518</v>
       </c>
       <c r="K23">
-        <v>0.9943765283846456</v>
+        <v>0.9941947451407518</v>
       </c>
       <c r="L23">
-        <v>0.9898419563533701</v>
+        <v>0.9899002973575807</v>
       </c>
       <c r="M23">
-        <v>1.011998090314449</v>
+        <v>1.012082097833668</v>
       </c>
       <c r="N23">
-        <v>1.011998090314449</v>
+        <v>1.012082097833668</v>
       </c>
       <c r="O23">
-        <v>1.014610142907043</v>
+        <v>1.014667734943826</v>
       </c>
       <c r="P23">
-        <v>1.006124236337848</v>
+        <v>1.006119646936029</v>
       </c>
       <c r="Q23">
-        <v>1.006124236337848</v>
+        <v>1.00611964693603</v>
       </c>
       <c r="R23">
-        <v>1.003187309349547</v>
+        <v>1.00313842148721</v>
       </c>
       <c r="S23">
-        <v>1.003187309349547</v>
+        <v>1.00313842148721</v>
       </c>
       <c r="T23">
-        <v>1.000236517457082</v>
+        <v>1.000266621623476</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9961875367233075</v>
+        <v>0.9962635807468857</v>
       </c>
       <c r="D24">
-        <v>1.005200857483079</v>
+        <v>1.005197898253381</v>
       </c>
       <c r="E24">
-        <v>0.9953656638796829</v>
+        <v>0.995283119500201</v>
       </c>
       <c r="F24">
-        <v>0.9975593033009118</v>
+        <v>0.9975645962154627</v>
       </c>
       <c r="G24">
-        <v>0.9981238196446287</v>
+        <v>0.9980999993268769</v>
       </c>
       <c r="H24">
-        <v>1.010270840016253</v>
+        <v>1.010223441416992</v>
       </c>
       <c r="I24">
-        <v>1.010270840016253</v>
+        <v>1.010223441416992</v>
       </c>
       <c r="J24">
-        <v>0.9961875367233075</v>
+        <v>0.9962635807468857</v>
       </c>
       <c r="K24">
-        <v>0.9961875367233075</v>
+        <v>0.9962635807468857</v>
       </c>
       <c r="L24">
-        <v>0.9981238196446287</v>
+        <v>0.9980999993268769</v>
       </c>
       <c r="M24">
-        <v>1.004197329830441</v>
+        <v>1.004161720371934</v>
       </c>
       <c r="N24">
-        <v>1.004197329830441</v>
+        <v>1.004161720371934</v>
       </c>
       <c r="O24">
-        <v>1.004531839047987</v>
+        <v>1.004507112999083</v>
       </c>
       <c r="P24">
-        <v>1.00152739879473</v>
+        <v>1.001529007163585</v>
       </c>
       <c r="Q24">
-        <v>1.00152739879473</v>
+        <v>1.001529007163585</v>
       </c>
       <c r="R24">
-        <v>1.000192433276874</v>
+        <v>1.00021265055941</v>
       </c>
       <c r="S24">
-        <v>1.000192433276874</v>
+        <v>1.00021265055941</v>
       </c>
       <c r="T24">
-        <v>1.000451336841311</v>
+        <v>1.000438772576633</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.9945578376799356</v>
+        <v>0.9943765283846456</v>
       </c>
       <c r="D25">
-        <v>1.019830122117639</v>
+        <v>1.019834248092231</v>
       </c>
       <c r="E25">
-        <v>0.9718463137276816</v>
+        <v>0.9720481585830212</v>
       </c>
       <c r="F25">
-        <v>0.9911753558455639</v>
+        <v>0.9911639890536953</v>
       </c>
       <c r="G25">
-        <v>0.9897833980675148</v>
+        <v>0.9898419563533701</v>
       </c>
       <c r="H25">
-        <v>1.034045785201774</v>
+        <v>1.034154224275527</v>
       </c>
       <c r="I25">
-        <v>1.034045785201774</v>
+        <v>1.034154224275527</v>
       </c>
       <c r="J25">
-        <v>0.9945578376799356</v>
+        <v>0.9943765283846456</v>
       </c>
       <c r="K25">
-        <v>0.9945578376799356</v>
+        <v>0.9943765283846456</v>
       </c>
       <c r="L25">
-        <v>0.9897833980675148</v>
+        <v>0.9898419563533701</v>
       </c>
       <c r="M25">
-        <v>1.011914591634644</v>
+        <v>1.011998090314449</v>
       </c>
       <c r="N25">
-        <v>1.011914591634644</v>
+        <v>1.011998090314449</v>
       </c>
       <c r="O25">
-        <v>1.014553101795643</v>
+        <v>1.014610142907043</v>
       </c>
       <c r="P25">
-        <v>1.006129006983075</v>
+        <v>1.006124236337848</v>
       </c>
       <c r="Q25">
-        <v>1.006129006983075</v>
+        <v>1.006124236337848</v>
       </c>
       <c r="R25">
-        <v>1.00323621465729</v>
+        <v>1.003187309349547</v>
       </c>
       <c r="S25">
-        <v>1.00323621465729</v>
+        <v>1.003187309349547</v>
       </c>
       <c r="T25">
-        <v>1.000206468773351</v>
+        <v>1.000236517457082</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.9961114949946013</v>
+        <v>0.9961875367233075</v>
       </c>
       <c r="D26">
-        <v>1.005203969361699</v>
+        <v>1.005200857483079</v>
       </c>
       <c r="E26">
-        <v>0.995447926318658</v>
+        <v>0.9953656638796829</v>
       </c>
       <c r="F26">
-        <v>0.997553937914302</v>
+        <v>0.9975593033009118</v>
       </c>
       <c r="G26">
-        <v>0.9981475398124822</v>
+        <v>0.9981238196446287</v>
       </c>
       <c r="H26">
-        <v>1.010318481588344</v>
+        <v>1.010270840016253</v>
       </c>
       <c r="I26">
-        <v>1.010318481588344</v>
+        <v>1.010270840016253</v>
       </c>
       <c r="J26">
-        <v>0.9961114949946013</v>
+        <v>0.9961875367233075</v>
       </c>
       <c r="K26">
-        <v>0.9961114949946013</v>
+        <v>0.9961875367233075</v>
       </c>
       <c r="L26">
-        <v>0.9981475398124822</v>
+        <v>0.9981238196446287</v>
       </c>
       <c r="M26">
-        <v>1.004233010700413</v>
+        <v>1.004197329830441</v>
       </c>
       <c r="N26">
-        <v>1.004233010700413</v>
+        <v>1.004197329830441</v>
       </c>
       <c r="O26">
-        <v>1.004556663587508</v>
+        <v>1.004531839047987</v>
       </c>
       <c r="P26">
-        <v>1.001525838798476</v>
+        <v>1.00152739879473</v>
       </c>
       <c r="Q26">
-        <v>1.001525838798476</v>
+        <v>1.00152739879473</v>
       </c>
       <c r="R26">
-        <v>1.000172252847507</v>
+        <v>1.000192433276874</v>
       </c>
       <c r="S26">
-        <v>1.000172252847507</v>
+        <v>1.000192433276874</v>
       </c>
       <c r="T26">
-        <v>1.000463891665014</v>
+        <v>1.000451336841311</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.004464755198621</v>
+        <v>0.9945578376799356</v>
       </c>
       <c r="D27">
-        <v>0.9909148193909096</v>
+        <v>1.019830122117639</v>
       </c>
       <c r="E27">
-        <v>1.010626022463332</v>
+        <v>0.9718463137276816</v>
       </c>
       <c r="F27">
-        <v>1.004147357255148</v>
+        <v>0.9911753558455639</v>
       </c>
       <c r="G27">
-        <v>1.004016759305191</v>
+        <v>0.9897833980675148</v>
       </c>
       <c r="H27">
-        <v>0.9832929658236526</v>
+        <v>1.034045785201774</v>
       </c>
       <c r="I27">
-        <v>0.9832929658236526</v>
+        <v>1.034045785201774</v>
       </c>
       <c r="J27">
-        <v>1.004464755198621</v>
+        <v>0.9945578376799356</v>
       </c>
       <c r="K27">
-        <v>1.004464755198621</v>
+        <v>0.9945578376799356</v>
       </c>
       <c r="L27">
-        <v>1.004016759305191</v>
+        <v>0.9897833980675148</v>
       </c>
       <c r="M27">
-        <v>0.9936548625644219</v>
+        <v>1.011914591634644</v>
       </c>
       <c r="N27">
-        <v>0.9936548625644219</v>
+        <v>1.011914591634644</v>
       </c>
       <c r="O27">
-        <v>0.9927415148399179</v>
+        <v>1.014553101795643</v>
       </c>
       <c r="P27">
-        <v>0.9972581601091548</v>
+        <v>1.006129006983075</v>
       </c>
       <c r="Q27">
-        <v>0.9972581601091548</v>
+        <v>1.006129006983075</v>
       </c>
       <c r="R27">
-        <v>0.9990598088815212</v>
+        <v>1.00323621465729</v>
       </c>
       <c r="S27">
-        <v>0.9990598088815212</v>
+        <v>1.00323621465729</v>
       </c>
       <c r="T27">
-        <v>0.9995771132394756</v>
+        <v>1.000206468773351</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.9995505775482583</v>
+        <v>0.9961114949946013</v>
       </c>
       <c r="D28">
-        <v>1.001565073892895</v>
+        <v>1.005203969361699</v>
       </c>
       <c r="E28">
-        <v>0.9978009598983739</v>
+        <v>0.995447926318658</v>
       </c>
       <c r="F28">
-        <v>0.9993024690759527</v>
+        <v>0.997553937914302</v>
       </c>
       <c r="G28">
-        <v>0.9992003739055144</v>
+        <v>0.9981475398124822</v>
       </c>
       <c r="H28">
-        <v>1.002698221455348</v>
+        <v>1.010318481588344</v>
       </c>
       <c r="I28">
-        <v>1.002698221455348</v>
+        <v>1.010318481588344</v>
       </c>
       <c r="J28">
-        <v>0.9995505775482583</v>
+        <v>0.9961114949946013</v>
       </c>
       <c r="K28">
-        <v>0.9995505775482583</v>
+        <v>0.9961114949946013</v>
       </c>
       <c r="L28">
-        <v>0.9992003739055144</v>
+        <v>0.9981475398124822</v>
       </c>
       <c r="M28">
-        <v>1.000949297680431</v>
+        <v>1.004233010700413</v>
       </c>
       <c r="N28">
-        <v>1.000949297680431</v>
+        <v>1.004233010700413</v>
       </c>
       <c r="O28">
-        <v>1.001154556417919</v>
+        <v>1.004556663587508</v>
       </c>
       <c r="P28">
-        <v>1.000483057636374</v>
+        <v>1.001525838798476</v>
       </c>
       <c r="Q28">
-        <v>1.000483057636374</v>
+        <v>1.001525838798476</v>
       </c>
       <c r="R28">
-        <v>1.000249937614345</v>
+        <v>1.000172252847507</v>
       </c>
       <c r="S28">
-        <v>1.000249937614345</v>
+        <v>1.000172252847507</v>
       </c>
       <c r="T28">
-        <v>1.000019612629391</v>
+        <v>1.000463891665014</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>1.004464755198621</v>
+      </c>
+      <c r="D29">
+        <v>0.9909148193909096</v>
+      </c>
+      <c r="E29">
+        <v>1.010626022463332</v>
+      </c>
+      <c r="F29">
+        <v>1.004147357255148</v>
+      </c>
+      <c r="G29">
+        <v>1.004016759305191</v>
+      </c>
+      <c r="H29">
+        <v>0.9832929658236526</v>
+      </c>
+      <c r="I29">
+        <v>0.9832929658236526</v>
+      </c>
+      <c r="J29">
+        <v>1.004464755198621</v>
+      </c>
+      <c r="K29">
+        <v>1.004464755198621</v>
+      </c>
+      <c r="L29">
+        <v>1.004016759305191</v>
+      </c>
+      <c r="M29">
+        <v>0.9936548625644219</v>
+      </c>
+      <c r="N29">
+        <v>0.9936548625644219</v>
+      </c>
+      <c r="O29">
+        <v>0.9927415148399179</v>
+      </c>
+      <c r="P29">
+        <v>0.9972581601091548</v>
+      </c>
+      <c r="Q29">
+        <v>0.9972581601091548</v>
+      </c>
+      <c r="R29">
+        <v>0.9990598088815212</v>
+      </c>
+      <c r="S29">
+        <v>0.9990598088815212</v>
+      </c>
+      <c r="T29">
+        <v>0.9995771132394756</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9995505775482583</v>
+      </c>
+      <c r="D30">
+        <v>1.001565073892895</v>
+      </c>
+      <c r="E30">
+        <v>0.9978009598983739</v>
+      </c>
+      <c r="F30">
+        <v>0.9993024690759527</v>
+      </c>
+      <c r="G30">
+        <v>0.9992003739055144</v>
+      </c>
+      <c r="H30">
+        <v>1.002698221455348</v>
+      </c>
+      <c r="I30">
+        <v>1.002698221455348</v>
+      </c>
+      <c r="J30">
+        <v>0.9995505775482583</v>
+      </c>
+      <c r="K30">
+        <v>0.9995505775482583</v>
+      </c>
+      <c r="L30">
+        <v>0.9992003739055144</v>
+      </c>
+      <c r="M30">
+        <v>1.000949297680431</v>
+      </c>
+      <c r="N30">
+        <v>1.000949297680431</v>
+      </c>
+      <c r="O30">
+        <v>1.001154556417919</v>
+      </c>
+      <c r="P30">
+        <v>1.000483057636374</v>
+      </c>
+      <c r="Q30">
+        <v>1.000483057636374</v>
+      </c>
+      <c r="R30">
+        <v>1.000249937614345</v>
+      </c>
+      <c r="S30">
+        <v>1.000249937614345</v>
+      </c>
+      <c r="T30">
+        <v>1.000019612629391</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.9868824531928516</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>1.029269407899774</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.9643066827776656</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.9867056015831062</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.9866328340932981</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>1.053112088613369</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>1.053112088613369</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.9868824531928516</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.9868824531928516</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.9866328340932981</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.019872461353334</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>1.019872461353334</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>1.023004776868814</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.008875791966506</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>1.008875791966506</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.003377457273093</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.003377457273093</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.001151511360011</v>
       </c>
     </row>
